--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="56" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="113">
   <si>
     <t>STT</t>
   </si>
@@ -299,6 +299,90 @@
   <si>
     <t>00BD000D19, WM21051100S0524</t>
   </si>
+  <si>
+    <t>Le4.1.02.AOO06.220322</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16060</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi ACC, GSM chốt chậm</t>
+  </si>
+  <si>
+    <t>Nạp lại FW, xử lý lại ACC</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>GSM chốt chậm</t>
+  </si>
+  <si>
+    <t>Nạp lại FW</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A10</t>
+  </si>
+  <si>
+    <t>125.212.203.114/16060</t>
+  </si>
+  <si>
+    <t>Thiết bị hoạt động bình thường</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>Thiết bị mất id</t>
+  </si>
+  <si>
+    <t>Khởi tạo lại thiết bị</t>
+  </si>
+  <si>
+    <t>Chập module GSM/GPS</t>
+  </si>
+  <si>
+    <t>Thay module GSM/GPS</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200624.CAR01A11</t>
+  </si>
+  <si>
+    <t>Imei mới: 862549041582746</t>
+  </si>
+  <si>
+    <t>003200040E1</t>
+  </si>
+  <si>
+    <t>125.212.203.250,21083</t>
+  </si>
+  <si>
+    <t>V3.3.21.3_R21111601</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị, làm mới trả kho</t>
+  </si>
+  <si>
+    <t>0032000AFA</t>
+  </si>
+  <si>
+    <t>V3.3.21.5_R22090903</t>
+  </si>
+  <si>
+    <t>Thiết bị lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Trả kho</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
 </sst>
 </file>
 
@@ -500,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -718,6 +802,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,14 +856,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1111,41 +1198,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1190,58 +1277,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="72" t="s">
         <v>1</v>
       </c>
@@ -1266,23 +1353,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,13 +1386,13 @@
       <c r="E6" s="60">
         <v>869492055084825</v>
       </c>
-      <c r="F6" s="89" t="s">
+      <c r="F6" s="74" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="90" t="s">
+      <c r="H6" s="75" t="s">
         <v>82</v>
       </c>
       <c r="I6" s="63"/>
@@ -1320,7 +1407,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1342,13 +1429,13 @@
       <c r="E7" s="60">
         <v>869492055117880</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="74" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="89" t="s">
+      <c r="H7" s="74" t="s">
         <v>83</v>
       </c>
       <c r="I7" s="51"/>
@@ -1363,7 +1450,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1383,13 +1470,13 @@
       <c r="E8" s="60">
         <v>869492055082134</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="F8" s="74" t="s">
         <v>81</v>
       </c>
       <c r="G8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="89" t="s">
+      <c r="H8" s="74" t="s">
         <v>84</v>
       </c>
       <c r="I8" s="51"/>
@@ -1404,7 +1491,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1433,7 +1520,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1462,7 +1549,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1491,7 +1578,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1520,7 +1607,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1551,7 +1638,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1580,7 +1667,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1609,7 +1696,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1638,7 +1725,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3354,13 +3441,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3372,6 +3452,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3382,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3415,41 +3502,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3494,58 +3581,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3570,23 +3657,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3622,7 +3709,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3663,7 +3750,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3702,7 +3789,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3743,7 +3830,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3771,18 +3858,30 @@
       </c>
       <c r="H10" s="59"/>
       <c r="I10" s="51"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="2"/>
+      <c r="O10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3808,22 +3907,36 @@
       <c r="G11" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="73" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="51"/>
+      <c r="I11" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="38"/>
+      <c r="K11" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="M11" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3849,20 +3962,36 @@
       <c r="G12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="51"/>
+      <c r="H12" s="73" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>109</v>
+      </c>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3890,20 +4019,36 @@
       <c r="G13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="51"/>
+      <c r="H13" s="91" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="M13" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3932,7 +4077,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3961,7 +4106,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3990,7 +4135,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4108,7 +4253,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4140,7 +4285,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4385,7 +4530,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -4609,7 +4754,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4641,7 +4786,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4759,7 +4904,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -5706,6 +5851,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5717,13 +5869,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5735,7 +5880,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5767,41 +5912,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5846,58 +5991,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5922,23 +6067,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5972,7 +6117,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5984,9 +6129,7 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61">
-        <v>44845</v>
-      </c>
+      <c r="B7" s="61"/>
       <c r="C7" s="54"/>
       <c r="D7" s="37"/>
       <c r="E7" s="38"/>
@@ -6005,7 +6148,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6034,7 +6177,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6063,7 +6206,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6092,7 +6235,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6121,7 +6264,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6150,7 +6293,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6181,7 +6324,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6210,7 +6353,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6239,7 +6382,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6268,7 +6411,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7984,13 +8127,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8002,6 +8138,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8013,7 +8156,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8045,41 +8188,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8124,58 +8267,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8200,23 +8343,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8237,20 +8380,38 @@
       <c r="G6" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
+      <c r="H6" s="62" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>100</v>
+      </c>
       <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="L6" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="M6" s="66" t="s">
+        <v>101</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8277,19 +8438,35 @@
         <v>66</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>94</v>
+      </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>99</v>
+      </c>
       <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>37</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8318,7 +8495,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8347,7 +8524,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8376,7 +8553,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8405,7 +8582,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8434,7 +8611,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8465,7 +8642,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8494,7 +8671,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8523,7 +8700,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8552,7 +8729,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8670,7 +8847,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -8702,7 +8879,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -8947,7 +9124,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -9075,7 +9252,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -9203,7 +9380,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -10268,13 +10445,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10286,6 +10456,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10296,8 +10473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10329,41 +10506,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10408,58 +10585,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="76" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10484,23 +10661,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="77"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10522,19 +10699,35 @@
         <v>64</v>
       </c>
       <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
+      <c r="I6" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="65" t="s">
+        <v>85</v>
+      </c>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>97</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>25</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10561,19 +10754,35 @@
         <v>64</v>
       </c>
       <c r="H7" s="62"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="65"/>
+      <c r="I7" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" s="65" t="s">
+        <v>85</v>
+      </c>
       <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
+      <c r="M7" s="66" t="s">
+        <v>88</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="67"/>
+      <c r="O7" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="67" t="s">
+        <v>91</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10598,19 +10807,35 @@
         <v>64</v>
       </c>
       <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="65"/>
+      <c r="I8" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="65" t="s">
+        <v>85</v>
+      </c>
       <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="M8" s="66" t="s">
+        <v>93</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="67"/>
+      <c r="O8" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10639,7 +10864,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10668,7 +10893,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10697,7 +10922,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10726,7 +10951,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10757,7 +10982,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10786,7 +11011,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10815,7 +11040,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10844,7 +11069,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10962,7 +11187,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -10994,7 +11219,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11431,7 +11656,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11463,7 +11688,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -11495,7 +11720,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12560,13 +12785,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12578,6 +12796,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12621,41 +12846,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="82"/>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="85" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="85"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12700,58 +12925,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="81" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="81" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="81"/>
-      <c r="M4" s="78" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="78" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="81" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="81" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -12776,23 +13001,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="81"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="81"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="81"/>
-      <c r="R5" s="81"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="81"/>
-      <c r="V5" s="81"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12818,7 +13043,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="73" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12849,7 +13074,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="74"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12878,7 +13103,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="74"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12907,7 +13132,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="74"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12936,7 +13161,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="74"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12965,7 +13190,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="74"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12994,7 +13219,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="73" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13025,7 +13250,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="74"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13054,7 +13279,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="74"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13083,7 +13308,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="74"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13112,7 +13337,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="75"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14343,6 +14568,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14354,13 +14586,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="56" r:id="rId1"/>
@@ -811,29 +811,8 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -853,10 +832,31 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1198,41 +1198,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1277,58 +1277,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="72" t="s">
         <v>1</v>
       </c>
@@ -1353,23 +1353,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1407,7 +1407,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1450,7 +1450,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1491,7 +1491,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1520,7 +1520,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1549,7 +1549,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1578,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1638,7 +1638,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1667,7 +1667,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1725,7 +1725,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3441,6 +3441,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3452,13 +3459,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3469,8 +3469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3502,41 +3502,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3581,58 +3581,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3657,23 +3657,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3709,7 +3709,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3724,7 +3724,7 @@
       <c r="B7" s="61">
         <v>44845</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="61"/>
       <c r="D7" s="59" t="s">
         <v>63</v>
       </c>
@@ -3750,7 +3750,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3763,7 +3763,7 @@
       <c r="B8" s="61">
         <v>44845</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="59" t="s">
         <v>63</v>
       </c>
@@ -3789,7 +3789,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3802,7 +3802,7 @@
       <c r="B9" s="61">
         <v>44845</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="59" t="s">
         <v>63</v>
       </c>
@@ -3830,7 +3830,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="B10" s="61">
         <v>44845</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="59" t="s">
         <v>63</v>
       </c>
@@ -3881,7 +3881,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="B11" s="61">
         <v>44845</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="59" t="s">
         <v>63</v>
       </c>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3949,7 +3949,7 @@
       <c r="B12" s="61">
         <v>44845</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="61"/>
       <c r="D12" s="59" t="s">
         <v>63</v>
       </c>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4006,7 +4006,7 @@
       <c r="B13" s="61">
         <v>44845</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="61"/>
       <c r="D13" s="59" t="s">
         <v>63</v>
       </c>
@@ -4019,7 +4019,7 @@
       <c r="G13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="91" t="s">
+      <c r="H13" s="76" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="51" t="s">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4077,7 +4077,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4106,7 +4106,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4135,7 +4135,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5851,13 +5851,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5869,6 +5862,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5880,7 +5880,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5912,41 +5912,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5991,58 +5991,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6067,23 +6067,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6093,7 +6093,9 @@
       <c r="B6" s="61">
         <v>44845</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44848</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>67</v>
       </c>
@@ -6117,7 +6119,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6148,7 +6150,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6177,7 +6179,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6206,7 +6208,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6235,7 +6237,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6264,7 +6266,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6293,7 +6295,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6324,7 +6326,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6353,7 +6355,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6382,7 +6384,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6411,7 +6413,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8127,6 +8129,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8138,13 +8147,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8156,7 +8158,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8188,41 +8190,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8267,58 +8269,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8343,23 +8345,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8369,7 +8371,9 @@
       <c r="B6" s="61">
         <v>44845</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44848</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>45</v>
       </c>
@@ -8411,7 +8415,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8426,7 +8430,9 @@
       <c r="B7" s="61">
         <v>44845</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44848</v>
+      </c>
       <c r="D7" s="59" t="s">
         <v>45</v>
       </c>
@@ -8466,7 +8472,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8495,7 +8501,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8524,7 +8530,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8553,7 +8559,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8582,7 +8588,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8611,7 +8617,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8642,7 +8648,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8671,7 +8677,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8700,7 +8706,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8729,7 +8735,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10445,6 +10451,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10456,13 +10469,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10473,8 +10479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10506,41 +10512,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10585,58 +10591,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="81" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="81" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10661,23 +10667,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="89"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10687,7 +10693,9 @@
       <c r="B6" s="61">
         <v>44845</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44848</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>56</v>
       </c>
@@ -10727,7 +10735,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10742,7 +10750,9 @@
       <c r="B7" s="61">
         <v>44845</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44848</v>
+      </c>
       <c r="D7" s="59" t="s">
         <v>56</v>
       </c>
@@ -10782,7 +10792,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10795,7 +10805,9 @@
       <c r="B8" s="61">
         <v>44845</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44848</v>
+      </c>
       <c r="D8" s="59" t="s">
         <v>56</v>
       </c>
@@ -10835,7 +10847,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10864,7 +10876,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10893,7 +10905,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10922,7 +10934,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10951,7 +10963,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10982,7 +10994,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11011,7 +11023,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11040,7 +11052,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11069,7 +11081,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12785,6 +12797,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12796,13 +12815,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12846,41 +12858,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85"/>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="85"/>
-      <c r="T1" s="85"/>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
+      <c r="A1" s="78"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
+      <c r="S1" s="78"/>
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="88"/>
+      <c r="F2" s="81"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12925,58 +12937,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="89" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="84" t="s">
+      <c r="A4" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
-      <c r="J4" s="84" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="81" t="s">
+      <c r="L4" s="77"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="77" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="83" t="s">
+      <c r="S4" s="90" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="84" t="s">
+      <c r="U4" s="77" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="84" t="s">
+      <c r="V4" s="77" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13001,23 +13013,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="84"/>
+      <c r="J5" s="77"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="83"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="90"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13043,7 +13055,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="85" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13074,7 +13086,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="86"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13103,7 +13115,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="86"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13132,7 +13144,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="86"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13161,7 +13173,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="86"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13190,7 +13202,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="86"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13219,7 +13231,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="85" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13250,7 +13262,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="86"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13279,7 +13291,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="86"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13308,7 +13320,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="86"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13337,7 +13349,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="87"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14568,13 +14580,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14586,6 +14591,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="56" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="114">
   <si>
     <t>STT</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>KS</t>
+  </si>
+  <si>
+    <t>0032002992</t>
   </si>
 </sst>
 </file>
@@ -3469,8 +3472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C13"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3776,7 +3779,9 @@
       <c r="G8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="73" t="s">
+        <v>113</v>
+      </c>
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
       <c r="K8" s="38"/>
@@ -10479,8 +10484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="115">
   <si>
     <t>STT</t>
   </si>
@@ -385,6 +385,9 @@
   </si>
   <si>
     <t>0032002992</t>
+  </si>
+  <si>
+    <t>0032000AC7</t>
   </si>
 </sst>
 </file>
@@ -3473,7 +3476,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3701,15 +3704,27 @@
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
+      <c r="J6" s="63" t="s">
+        <v>110</v>
+      </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
+      <c r="M6" s="66" t="s">
+        <v>111</v>
+      </c>
       <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="O6" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="P6" s="66" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q6" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="R6" s="67" t="s">
+        <v>31</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
       <c r="U6" s="85" t="s">
@@ -3740,17 +3755,33 @@
       <c r="G7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="59"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="73" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
       <c r="U7" s="86"/>
@@ -3782,16 +3813,28 @@
       <c r="H8" s="73" t="s">
         <v>113</v>
       </c>
-      <c r="I8" s="51"/>
+      <c r="I8" s="51" t="s">
+        <v>105</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
       <c r="U8" s="86"/>
@@ -3824,15 +3867,27 @@
         <v>74</v>
       </c>
       <c r="I9" s="51"/>
-      <c r="J9" s="1"/>
+      <c r="J9" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="K9" s="38"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>111</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="39"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="2"/>
+      <c r="O9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
       <c r="U9" s="86"/>
@@ -4258,7 +4313,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4290,7 +4345,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -4535,7 +4590,7 @@
       </c>
       <c r="V29" s="9">
         <f>COUNTIF($R$6:$R$51,"*NG*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W29" s="13"/>
     </row>
@@ -4759,7 +4814,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -4791,7 +4846,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4909,7 +4964,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W41" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -820,6 +820,30 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,30 +861,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,41 +1204,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1283,58 +1283,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="72" t="s">
         <v>1</v>
       </c>
@@ -1359,23 +1359,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="72" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1413,7 +1413,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="71"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1456,7 +1456,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="71"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1497,7 +1497,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="71"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1526,7 +1526,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="71"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1555,7 +1555,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="71"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="71"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="71"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1644,7 +1644,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="71"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1673,7 +1673,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="71"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1702,7 +1702,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1731,7 +1731,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3447,13 +3447,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3465,6 +3458,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3476,7 +3476,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3508,41 +3508,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3587,58 +3587,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3663,23 +3663,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3689,7 +3689,9 @@
       <c r="B6" s="61">
         <v>44845</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44858</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>63</v>
       </c>
@@ -3727,7 +3729,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3742,7 +3744,9 @@
       <c r="B7" s="61">
         <v>44845</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44858</v>
+      </c>
       <c r="D7" s="59" t="s">
         <v>63</v>
       </c>
@@ -3784,7 +3788,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3797,7 +3801,9 @@
       <c r="B8" s="61">
         <v>44845</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="61">
+        <v>44858</v>
+      </c>
       <c r="D8" s="59" t="s">
         <v>63</v>
       </c>
@@ -3837,7 +3843,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3850,7 +3856,9 @@
       <c r="B9" s="61">
         <v>44845</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="61">
+        <v>44858</v>
+      </c>
       <c r="D9" s="59" t="s">
         <v>63</v>
       </c>
@@ -3890,7 +3898,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3903,7 +3911,9 @@
       <c r="B10" s="61">
         <v>44845</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="61">
+        <v>44858</v>
+      </c>
       <c r="D10" s="59" t="s">
         <v>63</v>
       </c>
@@ -3941,7 +3951,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3954,7 +3964,9 @@
       <c r="B11" s="61">
         <v>44845</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="61">
+        <v>44858</v>
+      </c>
       <c r="D11" s="59" t="s">
         <v>63</v>
       </c>
@@ -3996,7 +4008,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4009,7 +4021,9 @@
       <c r="B12" s="61">
         <v>44845</v>
       </c>
-      <c r="C12" s="61"/>
+      <c r="C12" s="61">
+        <v>44858</v>
+      </c>
       <c r="D12" s="59" t="s">
         <v>63</v>
       </c>
@@ -4051,7 +4065,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4066,7 +4080,9 @@
       <c r="B13" s="61">
         <v>44845</v>
       </c>
-      <c r="C13" s="61"/>
+      <c r="C13" s="61">
+        <v>44858</v>
+      </c>
       <c r="D13" s="59" t="s">
         <v>63</v>
       </c>
@@ -4108,7 +4124,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4137,7 +4153,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4166,7 +4182,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4195,7 +4211,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5911,6 +5927,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5922,13 +5945,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5972,41 +5988,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6051,58 +6067,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6127,23 +6143,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6179,7 +6195,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6210,7 +6226,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6239,7 +6255,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6268,7 +6284,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6297,7 +6313,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6326,7 +6342,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6355,7 +6371,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6386,7 +6402,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6415,7 +6431,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6444,7 +6460,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6473,7 +6489,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8189,13 +8205,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8207,6 +8216,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8250,41 +8266,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8329,58 +8345,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8405,23 +8421,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8475,7 +8491,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8532,7 +8548,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8561,7 +8577,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8590,7 +8606,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8619,7 +8635,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8648,7 +8664,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8677,7 +8693,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8708,7 +8724,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8737,7 +8753,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8766,7 +8782,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8795,7 +8811,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10511,13 +10527,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10529,6 +10538,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10572,41 +10588,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10651,58 +10667,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10727,23 +10743,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="81"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10795,7 +10811,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10852,7 +10868,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10907,7 +10923,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10936,7 +10952,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10965,7 +10981,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10994,7 +11010,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11023,7 +11039,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11054,7 +11070,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11083,7 +11099,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11112,7 +11128,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11141,7 +11157,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12857,13 +12873,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12875,6 +12884,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12918,41 +12934,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="86"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="L1" s="86"/>
+      <c r="M1" s="86"/>
+      <c r="N1" s="86"/>
+      <c r="O1" s="86"/>
+      <c r="P1" s="86"/>
+      <c r="Q1" s="86"/>
+      <c r="R1" s="86"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="86"/>
+      <c r="U1" s="86"/>
+      <c r="V1" s="86"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="89"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12997,58 +13013,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="85"/>
+      <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="85" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="84" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="85" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="85" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="90"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13073,23 +13089,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="85"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="85"/>
       <c r="P5" s="91"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="90"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="84"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="85"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13115,7 +13131,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="77" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13146,7 +13162,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="78"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13175,7 +13191,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="78"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13204,7 +13220,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="78"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13233,7 +13249,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="78"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13262,7 +13278,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="78"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13291,7 +13307,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="77" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13322,7 +13338,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="78"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13351,7 +13367,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="78"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13380,7 +13396,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="78"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13409,7 +13425,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="79"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14640,6 +14656,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14651,13 +14674,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="56" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="121">
   <si>
     <t>STT</t>
   </si>
@@ -389,6 +389,24 @@
   <si>
     <t>0032000AC7</t>
   </si>
+  <si>
+    <t>125.212.203.114,16767</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(GD)</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(STM)</t>
+  </si>
+  <si>
+    <t>Thiết bị châp chờn GSM</t>
+  </si>
+  <si>
+    <t>Le4.1.00.AOO02.210621</t>
+  </si>
+  <si>
+    <t>125.212.203.114,16969</t>
+  </si>
 </sst>
 </file>
 
@@ -590,7 +608,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -799,9 +817,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -820,6 +835,30 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -837,30 +876,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1204,41 +1219,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1283,99 +1298,99 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="72" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="71" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="84"/>
+      <c r="K5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1392,13 +1407,13 @@
       <c r="E6" s="60">
         <v>869492055084825</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="73" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="74" t="s">
         <v>82</v>
       </c>
       <c r="I6" s="63"/>
@@ -1412,14 +1427,14 @@
       <c r="Q6" s="64"/>
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="85" t="s">
+      <c r="T6" s="70"/>
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="71"/>
+      <c r="W6" s="70"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1435,13 +1450,13 @@
       <c r="E7" s="60">
         <v>869492055117880</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="73" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="73" t="s">
         <v>83</v>
       </c>
       <c r="I7" s="51"/>
@@ -1455,12 +1470,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="86"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="71"/>
+      <c r="W7" s="70"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1476,13 +1491,13 @@
       <c r="E8" s="60">
         <v>869492055082134</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="73" t="s">
         <v>81</v>
       </c>
       <c r="G8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="73" t="s">
         <v>84</v>
       </c>
       <c r="I8" s="51"/>
@@ -1496,12 +1511,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="86"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="71"/>
+      <c r="W8" s="70"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1525,12 +1540,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="86"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="71"/>
+      <c r="W9" s="70"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1554,12 +1569,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="86"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="71"/>
+      <c r="W10" s="70"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1583,12 +1598,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="86"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="71"/>
+      <c r="W11" s="70"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1612,14 +1627,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="85" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="71"/>
+      <c r="W12" s="70"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1643,12 +1658,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="86"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="71"/>
+      <c r="W13" s="70"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1672,12 +1687,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="86"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="71"/>
+      <c r="W14" s="70"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1702,11 +1717,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="71"/>
+      <c r="W15" s="70"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1731,11 +1746,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="71"/>
+      <c r="W16" s="70"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1759,9 +1774,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="71"/>
+      <c r="U17" s="70"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="71"/>
+      <c r="W17" s="70"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1813,7 +1828,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="72" t="s">
+      <c r="U19" s="71" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1994,7 +2009,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="72" t="s">
+      <c r="U25" s="71" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -3447,13 +3462,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3465,6 +3473,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3475,8 +3490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3508,41 +3523,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3587,58 +3602,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3663,23 +3678,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3727,7 +3742,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3755,7 +3770,7 @@
       <c r="G7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="72" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="51" t="s">
@@ -3784,7 +3799,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3810,7 +3825,7 @@
       <c r="G8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="72" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="51" t="s">
@@ -3837,7 +3852,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3890,7 +3905,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3941,7 +3956,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3967,7 +3982,7 @@
       <c r="G11" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="72" t="s">
         <v>77</v>
       </c>
       <c r="I11" s="51" t="s">
@@ -3996,7 +4011,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4022,7 +4037,7 @@
       <c r="G12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="72" t="s">
         <v>108</v>
       </c>
       <c r="I12" s="51" t="s">
@@ -4051,7 +4066,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4079,7 +4094,7 @@
       <c r="G13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="75" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="51" t="s">
@@ -4108,7 +4123,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4137,7 +4152,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4166,7 +4181,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4195,7 +4210,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5911,6 +5926,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5922,13 +5944,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5940,7 +5955,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5972,41 +5987,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6051,58 +6066,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6127,23 +6142,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6179,7 +6194,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6191,12 +6206,20 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="61">
+        <v>44860</v>
+      </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="D7" s="59" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="37"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
@@ -6210,7 +6233,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6239,7 +6262,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6268,7 +6291,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6297,7 +6320,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6326,7 +6349,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6355,7 +6378,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6386,7 +6409,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6415,7 +6438,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6444,7 +6467,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6473,7 +6496,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8189,13 +8212,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8207,6 +8223,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8250,41 +8273,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8329,58 +8352,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8405,23 +8428,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8475,7 +8498,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8532,7 +8555,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8561,7 +8584,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8590,7 +8613,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8619,7 +8642,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8648,7 +8671,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8677,7 +8700,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8708,7 +8731,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8737,7 +8760,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8766,7 +8789,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8795,7 +8818,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10511,13 +10534,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10529,6 +10545,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10539,8 +10562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10572,41 +10595,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10651,58 +10674,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="88" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10727,75 +10750,75 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="54">
         <v>44845</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="54">
         <v>44848</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="38">
         <v>862205051190108</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
+      <c r="F6" s="37"/>
+      <c r="G6" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63" t="s">
+      <c r="H6" s="37"/>
+      <c r="I6" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
+      <c r="L6" s="39"/>
+      <c r="M6" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64" t="s">
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="Q6" s="64" t="s">
+      <c r="Q6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="67" t="s">
+      <c r="R6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10807,52 +10830,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="54">
         <v>44845</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="54">
         <v>44848</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="38">
         <v>862205051193680</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="37"/>
+      <c r="G7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63" t="s">
+      <c r="H7" s="37"/>
+      <c r="I7" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66" t="s">
+      <c r="L7" s="39"/>
+      <c r="M7" s="39" t="s">
         <v>88</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Q7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="67" t="s">
+      <c r="R7" s="2" t="s">
         <v>91</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10862,52 +10885,52 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="54">
         <v>44845</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="54">
         <v>44848</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="38">
         <v>862205051178665</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
+      <c r="F8" s="37"/>
+      <c r="G8" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63" t="s">
+      <c r="H8" s="37"/>
+      <c r="I8" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66" t="s">
+      <c r="L8" s="39"/>
+      <c r="M8" s="39" t="s">
         <v>93</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="64" t="s">
+      <c r="O8" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="67" t="s">
+      <c r="R8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10917,16 +10940,30 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="61">
+        <v>44860</v>
+      </c>
       <c r="C9" s="61"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="D9" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="38">
+        <v>861881051088814</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
+      <c r="I9" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="K9" s="65" t="s">
+        <v>85</v>
+      </c>
       <c r="L9" s="66"/>
       <c r="M9" s="66"/>
       <c r="N9" s="1"/>
@@ -10936,7 +10973,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10946,16 +10983,28 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="61">
+        <v>44860</v>
+      </c>
       <c r="C10" s="61"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
+      <c r="D10" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="38">
+        <v>861881051086057</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
+      <c r="I10" s="63" t="s">
+        <v>115</v>
+      </c>
       <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
+      <c r="K10" s="65" t="s">
+        <v>61</v>
+      </c>
       <c r="L10" s="66"/>
       <c r="M10" s="66"/>
       <c r="N10" s="1"/>
@@ -10965,7 +11014,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10975,16 +11024,28 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="61">
+        <v>44860</v>
+      </c>
       <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
+      <c r="D11" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="38">
+        <v>862205051174805</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="I11" s="63" t="s">
+        <v>115</v>
+      </c>
       <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
+      <c r="K11" s="65" t="s">
+        <v>85</v>
+      </c>
       <c r="L11" s="66"/>
       <c r="M11" s="66"/>
       <c r="N11" s="1"/>
@@ -10994,7 +11055,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11004,18 +11065,34 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
+      <c r="B12" s="61">
+        <v>44860</v>
+      </c>
       <c r="C12" s="61"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
+      <c r="D12" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="38">
+        <v>861881054164596</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="I12" s="63" t="s">
+        <v>115</v>
+      </c>
       <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
+      <c r="K12" s="65" t="s">
+        <v>119</v>
+      </c>
+      <c r="L12" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
       <c r="O12" s="64"/>
       <c r="P12" s="66"/>
@@ -11023,7 +11100,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11035,16 +11112,28 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
+      <c r="B13" s="61">
+        <v>44860</v>
+      </c>
       <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="D13" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="38">
+        <v>861881051072313</v>
+      </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
+      <c r="I13" s="51" t="s">
+        <v>120</v>
+      </c>
       <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39"/>
       <c r="N13" s="1"/>
@@ -11054,7 +11143,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11064,16 +11153,28 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
+      <c r="B14" s="61">
+        <v>44860</v>
+      </c>
       <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
+      <c r="D14" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="38">
+        <v>861881054172169</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="63" t="s">
+        <v>115</v>
+      </c>
       <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L14" s="39"/>
       <c r="M14" s="39"/>
       <c r="N14" s="1"/>
@@ -11083,7 +11184,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11093,16 +11194,28 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="61">
+        <v>44860</v>
+      </c>
       <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
+      <c r="D15" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="38">
+        <v>861881051087352</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
+      <c r="I15" s="63" t="s">
+        <v>115</v>
+      </c>
       <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L15" s="39"/>
       <c r="M15" s="39"/>
       <c r="N15" s="1"/>
@@ -11112,7 +11225,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11122,16 +11235,30 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
+      <c r="B16" s="61">
+        <v>44860</v>
+      </c>
       <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
+      <c r="D16" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="38">
+        <v>862205051171157</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="I16" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="K16" s="65" t="s">
+        <v>85</v>
+      </c>
       <c r="L16" s="39"/>
       <c r="M16" s="39"/>
       <c r="N16" s="1"/>
@@ -11141,7 +11268,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11151,15 +11278,28 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
+      <c r="B17" s="61">
+        <v>44860</v>
+      </c>
       <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
+      <c r="D17" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="38">
+        <v>861881051084086</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="51" t="s">
+        <v>86</v>
+      </c>
       <c r="J17" s="39"/>
+      <c r="K17" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="L17" s="39"/>
       <c r="M17" s="39"/>
       <c r="N17" s="1"/>
@@ -11177,16 +11317,30 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="61">
+        <v>44860</v>
+      </c>
       <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
+      <c r="D18" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E18" s="38">
+        <v>862205051198002</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="51" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="K18" s="65" t="s">
+        <v>85</v>
+      </c>
       <c r="L18" s="39"/>
       <c r="M18" s="39"/>
       <c r="N18" s="1"/>
@@ -11204,12 +11358,20 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54"/>
+      <c r="B19" s="61">
+        <v>44860</v>
+      </c>
       <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
+      <c r="D19" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="38">
+        <v>861881054167029</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H19" s="1"/>
       <c r="I19" s="51"/>
       <c r="J19" s="1"/>
@@ -11235,12 +11397,20 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54"/>
+      <c r="B20" s="61">
+        <v>44860</v>
+      </c>
       <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
+      <c r="D20" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="38">
+        <v>861881051082957</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H20" s="1"/>
       <c r="I20" s="51"/>
       <c r="J20" s="1"/>
@@ -11267,12 +11437,20 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="54"/>
+      <c r="B21" s="61">
+        <v>44860</v>
+      </c>
       <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
+      <c r="D21" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="38">
+        <v>862205051196857</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H21" s="1"/>
       <c r="I21" s="51"/>
       <c r="J21" s="1"/>
@@ -12145,7 +12323,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -12857,13 +13035,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12875,6 +13046,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12918,41 +13096,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
-      <c r="P1" s="78"/>
-      <c r="Q1" s="78"/>
-      <c r="R1" s="78"/>
-      <c r="S1" s="78"/>
-      <c r="T1" s="78"/>
-      <c r="U1" s="78"/>
-      <c r="V1" s="78"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="85"/>
+      <c r="T1" s="85"/>
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="81" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="81"/>
+      <c r="F2" s="88"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -12997,58 +13175,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="84"/>
+      <c r="M4" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="84" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="90" t="s">
+      <c r="S4" s="83" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="84" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
+      <c r="A5" s="89"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13073,23 +13251,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="77"/>
+      <c r="J5" s="84"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="90"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="83"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13115,7 +13293,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="85" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13146,7 +13324,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="86"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13175,7 +13353,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="86"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13204,7 +13382,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="86"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13233,7 +13411,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="86"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13262,7 +13440,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="86"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13291,7 +13469,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="85" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13322,7 +13500,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="86"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13351,7 +13529,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="86"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13380,7 +13558,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="86"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13409,7 +13587,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="87"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14640,6 +14818,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14651,13 +14836,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="56" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="125">
   <si>
     <t>STT</t>
   </si>
@@ -389,12 +389,42 @@
   <si>
     <t>0032000AC7</t>
   </si>
+  <si>
+    <t>TG102LE-4G(GD)</t>
+  </si>
+  <si>
+    <t>TG102LE-4G(STM)</t>
+  </si>
+  <si>
+    <t>sim</t>
+  </si>
+  <si>
+    <t>Sim lỗi</t>
+  </si>
+  <si>
+    <t>SL : 02</t>
+  </si>
+  <si>
+    <t>Thay MCU</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>Dây nguồn lỗi cos</t>
+  </si>
+  <si>
+    <t>Đổi dây mới</t>
+  </si>
+  <si>
+    <t>ĐM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,8 +497,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -487,8 +523,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -586,11 +628,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -799,9 +867,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,30 +884,6 @@
     </xf>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -862,8 +903,71 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1204,41 +1308,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1283,26 +1387,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
@@ -1312,7 +1416,7 @@
       <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -1321,61 +1425,61 @@
       <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
-      <c r="B5" s="72" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="72" t="s">
+      <c r="C5" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="72" t="s">
+      <c r="D5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="71" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="72" t="s">
+      <c r="H5" s="71" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
-      <c r="K5" s="72" t="s">
+      <c r="J5" s="76"/>
+      <c r="K5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="72" t="s">
+      <c r="L5" s="71" t="s">
         <v>13</v>
       </c>
       <c r="M5" s="83"/>
       <c r="N5" s="83"/>
       <c r="O5" s="83"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="83"/>
       <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1392,13 +1496,13 @@
       <c r="E6" s="60">
         <v>869492055084825</v>
       </c>
-      <c r="F6" s="74" t="s">
+      <c r="F6" s="73" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="75" t="s">
+      <c r="H6" s="74" t="s">
         <v>82</v>
       </c>
       <c r="I6" s="63"/>
@@ -1412,14 +1516,14 @@
       <c r="Q6" s="64"/>
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="71"/>
-      <c r="U6" s="77" t="s">
+      <c r="T6" s="70"/>
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="71"/>
+      <c r="W6" s="70"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1435,13 +1539,13 @@
       <c r="E7" s="60">
         <v>869492055117880</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="73" t="s">
         <v>81</v>
       </c>
       <c r="G7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="73" t="s">
         <v>83</v>
       </c>
       <c r="I7" s="51"/>
@@ -1455,12 +1559,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="71"/>
-      <c r="U7" s="78"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="71"/>
+      <c r="W7" s="70"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1476,13 +1580,13 @@
       <c r="E8" s="60">
         <v>869492055082134</v>
       </c>
-      <c r="F8" s="74" t="s">
+      <c r="F8" s="73" t="s">
         <v>81</v>
       </c>
       <c r="G8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="73" t="s">
         <v>84</v>
       </c>
       <c r="I8" s="51"/>
@@ -1496,12 +1600,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="71"/>
-      <c r="U8" s="78"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="71"/>
+      <c r="W8" s="70"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1525,12 +1629,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="78"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="71"/>
+      <c r="W9" s="70"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1554,12 +1658,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="78"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="71"/>
+      <c r="W10" s="70"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1583,12 +1687,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="78"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="71"/>
+      <c r="W11" s="70"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1612,14 +1716,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="77" t="s">
+      <c r="T12" s="70"/>
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="71"/>
+      <c r="W12" s="70"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1643,12 +1747,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="71"/>
-      <c r="U13" s="78"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="71"/>
+      <c r="W13" s="70"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1672,12 +1776,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="71"/>
-      <c r="U14" s="78"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="71"/>
+      <c r="W14" s="70"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1702,11 +1806,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="71"/>
+      <c r="W15" s="70"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1731,11 +1835,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="71"/>
+      <c r="W16" s="70"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1759,9 +1863,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="71"/>
+      <c r="U17" s="70"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="71"/>
+      <c r="W17" s="70"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1813,7 +1917,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="72" t="s">
+      <c r="U19" s="71" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1994,7 +2098,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="72" t="s">
+      <c r="U25" s="71" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -3447,6 +3551,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3458,13 +3569,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3475,8 +3579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3508,41 +3612,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3587,26 +3691,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
@@ -3616,7 +3720,7 @@
       <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -3625,20 +3729,20 @@
       <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3663,7 +3767,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
@@ -3673,13 +3777,13 @@
       <c r="M5" s="83"/>
       <c r="N5" s="83"/>
       <c r="O5" s="83"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="83"/>
       <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3729,7 +3833,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3759,7 +3863,7 @@
       <c r="G7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="72" t="s">
         <v>114</v>
       </c>
       <c r="I7" s="51" t="s">
@@ -3788,7 +3892,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3816,7 +3920,7 @@
       <c r="G8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="72" t="s">
         <v>113</v>
       </c>
       <c r="I8" s="51" t="s">
@@ -3843,7 +3947,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3898,7 +4002,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3951,7 +4055,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3979,7 +4083,7 @@
       <c r="G11" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="73" t="s">
+      <c r="H11" s="72" t="s">
         <v>77</v>
       </c>
       <c r="I11" s="51" t="s">
@@ -4008,7 +4112,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4036,7 +4140,7 @@
       <c r="G12" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="73" t="s">
+      <c r="H12" s="72" t="s">
         <v>108</v>
       </c>
       <c r="I12" s="51" t="s">
@@ -4065,7 +4169,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4095,7 +4199,7 @@
       <c r="G13" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="75" t="s">
         <v>104</v>
       </c>
       <c r="I13" s="51" t="s">
@@ -4124,7 +4228,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4153,7 +4257,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4182,7 +4286,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4211,7 +4315,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5927,13 +6031,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5945,6 +6042,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5955,8 +6059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5988,41 +6092,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6067,26 +6171,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
@@ -6096,7 +6200,7 @@
       <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -6105,20 +6209,20 @@
       <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6143,7 +6247,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -6153,13 +6257,13 @@
       <c r="M5" s="83"/>
       <c r="N5" s="83"/>
       <c r="O5" s="83"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="83"/>
       <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6184,18 +6288,18 @@
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="64"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="95"/>
+      <c r="M6" s="95"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="93"/>
+      <c r="P6" s="95"/>
+      <c r="Q6" s="93"/>
+      <c r="R6" s="96"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6207,26 +6311,48 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
+      <c r="B7" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C7" s="54">
+        <v>44867</v>
+      </c>
+      <c r="D7" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>119</v>
+      </c>
       <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
+      <c r="G7" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="N7" s="102"/>
+      <c r="O7" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="P7" s="101" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q7" s="103" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="92"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6244,18 +6370,18 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="99"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="100"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6284,7 +6410,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6313,7 +6439,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6342,7 +6468,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6371,7 +6497,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6402,7 +6528,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6431,7 +6557,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6460,7 +6586,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6489,7 +6615,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6639,7 +6765,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -6948,7 +7074,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -7140,7 +7266,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -8205,6 +8331,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8216,13 +8349,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8266,41 +8392,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8345,26 +8471,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
@@ -8374,7 +8500,7 @@
       <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -8383,20 +8509,20 @@
       <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8421,7 +8547,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -8431,13 +8557,13 @@
       <c r="M5" s="83"/>
       <c r="N5" s="83"/>
       <c r="O5" s="83"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="83"/>
       <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8491,7 +8617,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8548,7 +8674,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8577,7 +8703,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8606,7 +8732,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8635,7 +8761,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8664,7 +8790,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8693,7 +8819,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8724,7 +8850,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8753,7 +8879,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8782,7 +8908,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8811,7 +8937,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10527,6 +10653,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10538,13 +10671,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10555,8 +10681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showZeros="0" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10588,41 +10714,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10667,26 +10793,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
@@ -10696,7 +10822,7 @@
       <c r="O4" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="80" t="s">
+      <c r="P4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="82" t="s">
@@ -10705,20 +10831,20 @@
       <c r="R4" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10743,7 +10869,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -10753,13 +10879,13 @@
       <c r="M5" s="83"/>
       <c r="N5" s="83"/>
       <c r="O5" s="83"/>
-      <c r="P5" s="81"/>
+      <c r="P5" s="88"/>
       <c r="Q5" s="83"/>
       <c r="R5" s="83"/>
-      <c r="S5" s="84"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10772,8 +10898,8 @@
       <c r="C6" s="61">
         <v>44848</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>56</v>
+      <c r="D6" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="E6" s="60">
         <v>862205051190108</v>
@@ -10811,7 +10937,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10829,8 +10955,8 @@
       <c r="C7" s="61">
         <v>44848</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>56</v>
+      <c r="D7" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="E7" s="60">
         <v>862205051193680</v>
@@ -10868,7 +10994,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10884,8 +11010,8 @@
       <c r="C8" s="61">
         <v>44848</v>
       </c>
-      <c r="D8" s="59" t="s">
-        <v>56</v>
+      <c r="D8" s="37" t="s">
+        <v>115</v>
       </c>
       <c r="E8" s="60">
         <v>862205051178665</v>
@@ -10923,7 +11049,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10933,26 +11059,50 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
+      <c r="B9" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C9" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" s="38">
+        <v>861881051088814</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="47"/>
+      <c r="I9" s="63" t="s">
+        <v>86</v>
+      </c>
       <c r="J9" s="64"/>
       <c r="K9" s="65"/>
-      <c r="L9" s="66"/>
-      <c r="M9" s="66"/>
+      <c r="L9" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="66" t="s">
+        <v>93</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="66"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="67"/>
+      <c r="O9" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q9" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10962,26 +11112,52 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
+      <c r="B10" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C10" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E10" s="38">
+        <v>861881051086057</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="67"/>
+      <c r="O10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10991,26 +11167,50 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="63"/>
+      <c r="B11" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C11" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" s="38">
+        <v>862205051174805</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="63" t="s">
+        <v>86</v>
+      </c>
       <c r="J11" s="64"/>
       <c r="K11" s="65"/>
-      <c r="L11" s="66"/>
-      <c r="M11" s="66"/>
+      <c r="L11" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M11" s="66" t="s">
+        <v>93</v>
+      </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="66"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="67"/>
+      <c r="O11" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R11" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11020,26 +11220,50 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
+      <c r="B12" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C12" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="38">
+        <v>861881054164596</v>
+      </c>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="47"/>
+      <c r="I12" s="63" t="s">
+        <v>86</v>
+      </c>
       <c r="J12" s="64"/>
       <c r="K12" s="65"/>
-      <c r="L12" s="66"/>
-      <c r="M12" s="66"/>
+      <c r="L12" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="66" t="s">
+        <v>93</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="67"/>
+      <c r="O12" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q12" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11051,26 +11275,52 @@
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
+      <c r="B13" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C13" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="38">
+        <v>861881051072313</v>
+      </c>
       <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
+      <c r="G13" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="1"/>
+      <c r="I13" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>92</v>
+      </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
+      <c r="L13" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="2"/>
+      <c r="O13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P13" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R13" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11080,26 +11330,52 @@
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C14" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="38">
+        <v>861881054172169</v>
+      </c>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="1"/>
+      <c r="I14" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="64" t="s">
+        <v>92</v>
+      </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
+      <c r="L14" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M14" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="2"/>
+      <c r="O14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11109,26 +11385,52 @@
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="37"/>
+      <c r="B15" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C15" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="38">
+        <v>861881051087352</v>
+      </c>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37" t="s">
+        <v>64</v>
+      </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="1"/>
+      <c r="I15" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="64" t="s">
+        <v>92</v>
+      </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
+      <c r="L15" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M15" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="2"/>
+      <c r="O15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P15" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11138,26 +11440,50 @@
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="51"/>
+      <c r="B16" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C16" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="38">
+        <v>862205051171157</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="63" t="s">
+        <v>86</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
+      <c r="L16" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="66" t="s">
+        <v>93</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="2"/>
+      <c r="O16" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P16" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R16" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11167,22 +11493,49 @@
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
+      <c r="B17" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C17" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="38">
+        <v>861881051084086</v>
+      </c>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" s="64" t="s">
+        <v>92</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="2"/>
+      <c r="O17" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
       <c r="U17" s="69"/>
@@ -11193,23 +11546,47 @@
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="51"/>
+      <c r="B18" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C18" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="38">
+        <v>862205051198002</v>
+      </c>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="63" t="s">
+        <v>86</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
+      <c r="L18" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M18" s="66" t="s">
+        <v>93</v>
+      </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="2"/>
+      <c r="O18" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S18" s="3"/>
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
@@ -11220,23 +11597,47 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="51"/>
+      <c r="B19" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C19" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="E19" s="38">
+        <v>861881054167029</v>
+      </c>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="63" t="s">
+        <v>86</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
+      <c r="L19" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M19" s="66" t="s">
+        <v>93</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="2"/>
+      <c r="O19" s="64" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="64" t="s">
+        <v>19</v>
+      </c>
+      <c r="R19" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
       <c r="U19" s="68" t="s">
@@ -11251,23 +11652,53 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="1"/>
+      <c r="B20" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C20" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E20" s="38">
+        <v>861881051082957</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I20" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>92</v>
+      </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="39"/>
+      <c r="L20" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="39"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="2"/>
+      <c r="O20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S20" s="3"/>
       <c r="T20" s="13"/>
       <c r="U20" s="9" t="s">
@@ -11275,7 +11706,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -11283,23 +11714,49 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="1"/>
+      <c r="B21" s="61">
+        <v>44860</v>
+      </c>
+      <c r="C21" s="61">
+        <v>44867</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E21" s="38">
+        <v>862205051196857</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="63" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="64" t="s">
+        <v>92</v>
+      </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="L21" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>120</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="2"/>
+      <c r="O21" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="S21" s="3"/>
       <c r="T21" s="13"/>
       <c r="U21" s="9" t="s">
@@ -11307,7 +11764,7 @@
       </c>
       <c r="V21" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PC")</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="W21" s="13"/>
     </row>
@@ -11325,7 +11782,7 @@
       <c r="I22" s="51"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="39"/>
+      <c r="L22" s="51"/>
       <c r="M22" s="39"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -11354,7 +11811,6 @@
       <c r="F23" s="47"/>
       <c r="G23" s="37"/>
       <c r="H23" s="9"/>
-      <c r="I23" s="51"/>
       <c r="J23" s="1"/>
       <c r="K23" s="9"/>
       <c r="L23" s="39"/>
@@ -11456,7 +11912,7 @@
       </c>
       <c r="V26" s="9">
         <f>COUNTIF($R$6:$R$51,"*MCU*")</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W26" s="13"/>
     </row>
@@ -11744,7 +12200,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -11808,7 +12264,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -12161,7 +12617,7 @@
       <c r="S48" s="3"/>
       <c r="T48" s="34">
         <f>COUNTIF(J9:J20,"*GSM*")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U48" s="9" t="s">
         <v>57</v>
@@ -12873,6 +13329,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12884,13 +13347,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12934,41 +13390,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86"/>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
-      <c r="N1" s="86"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="86"/>
-      <c r="Q1" s="86"/>
-      <c r="R1" s="86"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="86"/>
-      <c r="U1" s="86"/>
-      <c r="V1" s="86"/>
+      <c r="A1" s="77"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="89" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="89"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13013,58 +13469,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="90" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="85" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="85" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="85"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="82" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="85" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="85" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="85" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="84" t="s">
+      <c r="S4" s="89" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="85" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="85" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13089,7 +13545,7 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="85"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
@@ -13098,14 +13554,14 @@
       </c>
       <c r="M5" s="83"/>
       <c r="N5" s="83"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="84"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="89"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="85"/>
-      <c r="V5" s="85"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13131,7 +13587,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="77" t="s">
+      <c r="U6" s="84" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13162,7 +13618,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="78"/>
+      <c r="U7" s="85"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13191,7 +13647,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="78"/>
+      <c r="U8" s="85"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13220,7 +13676,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="78"/>
+      <c r="U9" s="85"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13249,7 +13705,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="78"/>
+      <c r="U10" s="85"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13278,7 +13734,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="85"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13307,7 +13763,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="77" t="s">
+      <c r="U12" s="84" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13338,7 +13794,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="78"/>
+      <c r="U13" s="85"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13367,7 +13823,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="78"/>
+      <c r="U14" s="85"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13396,7 +13852,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="78"/>
+      <c r="U15" s="85"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13425,7 +13881,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="79"/>
+      <c r="U16" s="86"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14656,13 +15112,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14674,6 +15123,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="VNSH01" sheetId="56" r:id="rId1"/>
@@ -291,15 +291,6 @@
     <t>Dây kết nối, anten GSM, GPS, đế chân</t>
   </si>
   <si>
-    <t>00BD000E2D, WM21051100S0534</t>
-  </si>
-  <si>
-    <t>00BD0009AC, WM21051100S0627</t>
-  </si>
-  <si>
-    <t>00BD000D19, WM21051100S0524</t>
-  </si>
-  <si>
     <t>Le4.1.02.AOO06.220322</t>
   </si>
   <si>
@@ -418,6 +409,15 @@
   </si>
   <si>
     <t>ĐM</t>
+  </si>
+  <si>
+    <t>WM21051100S0481/ 00BD0007AF</t>
+  </si>
+  <si>
+    <t>WM21051100S0877/ 00BD000C6B</t>
+  </si>
+  <si>
+    <t>WM21051100S0395/ 00BD000A8C</t>
   </si>
 </sst>
 </file>
@@ -885,51 +885,6 @@
     <xf numFmtId="11" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,6 +923,51 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1275,8 +1275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1308,41 +1308,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1387,58 +1387,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="97" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
@@ -1463,23 +1463,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="71" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,8 +1493,8 @@
       <c r="D6" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="60">
-        <v>869492055084825</v>
+      <c r="E6" s="60" t="s">
+        <v>122</v>
       </c>
       <c r="F6" s="73" t="s">
         <v>81</v>
@@ -1502,9 +1502,7 @@
       <c r="G6" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="74" t="s">
-        <v>82</v>
-      </c>
+      <c r="H6" s="74"/>
       <c r="I6" s="63"/>
       <c r="J6" s="63"/>
       <c r="K6" s="65"/>
@@ -1517,7 +1515,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1536,8 +1534,8 @@
       <c r="D7" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="60">
-        <v>869492055117880</v>
+      <c r="E7" s="60" t="s">
+        <v>123</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>81</v>
@@ -1545,9 +1543,7 @@
       <c r="G7" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="73" t="s">
-        <v>83</v>
-      </c>
+      <c r="H7" s="73"/>
       <c r="I7" s="51"/>
       <c r="J7" s="1"/>
       <c r="K7" s="55"/>
@@ -1560,7 +1556,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1577,8 +1573,8 @@
       <c r="D8" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="60">
-        <v>869492055082134</v>
+      <c r="E8" s="60" t="s">
+        <v>124</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>81</v>
@@ -1586,9 +1582,7 @@
       <c r="G8" s="59" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="73" t="s">
-        <v>84</v>
-      </c>
+      <c r="H8" s="73"/>
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
       <c r="K8" s="38"/>
@@ -1601,7 +1595,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1624,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1659,7 +1653,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1688,7 +1682,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1717,7 +1711,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1748,7 +1742,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1777,7 +1771,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1806,7 +1800,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1835,7 +1829,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3551,13 +3545,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3569,6 +3556,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3612,41 +3606,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3691,58 +3685,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="97" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3767,23 +3761,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3811,19 +3805,19 @@
       <c r="H6" s="59"/>
       <c r="I6" s="63"/>
       <c r="J6" s="63" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66"/>
       <c r="M6" s="66" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>18</v>
@@ -3833,7 +3827,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3864,25 +3858,25 @@
         <v>64</v>
       </c>
       <c r="H7" s="72" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="I7" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>19</v>
@@ -3892,7 +3886,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3921,23 +3915,23 @@
         <v>64</v>
       </c>
       <c r="H8" s="72" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="I8" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P8" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>19</v>
@@ -3947,7 +3941,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3980,19 +3974,19 @@
       </c>
       <c r="I9" s="51"/>
       <c r="J9" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K9" s="38"/>
       <c r="L9" s="39"/>
       <c r="M9" s="39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q9" s="1" t="s">
         <v>18</v>
@@ -4002,7 +3996,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4033,19 +4027,19 @@
       <c r="H10" s="59"/>
       <c r="I10" s="51"/>
       <c r="J10" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
       <c r="M10" s="39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="P10" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>18</v>
@@ -4055,7 +4049,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4087,22 +4081,22 @@
         <v>77</v>
       </c>
       <c r="I11" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L11" s="39"/>
       <c r="M11" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>19</v>
@@ -4112,7 +4106,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4141,25 +4135,25 @@
         <v>64</v>
       </c>
       <c r="H12" s="72" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L12" s="39"/>
       <c r="M12" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>19</v>
@@ -4169,7 +4163,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4200,25 +4194,25 @@
         <v>64</v>
       </c>
       <c r="H13" s="75" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="I13" s="51" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L13" s="39"/>
       <c r="M13" s="39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>19</v>
@@ -4228,7 +4222,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4257,7 +4251,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4286,7 +4280,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4315,7 +4309,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6031,6 +6025,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6042,13 +6043,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6059,7 +6053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6092,41 +6086,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6171,58 +6165,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="97" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6247,23 +6241,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6288,18 +6282,18 @@
       </c>
       <c r="H6" s="59"/>
       <c r="I6" s="63"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95"/>
-      <c r="N6" s="93"/>
-      <c r="O6" s="93"/>
-      <c r="P6" s="95"/>
-      <c r="Q6" s="93"/>
-      <c r="R6" s="96"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="78"/>
+      <c r="O6" s="78"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="78"/>
+      <c r="R6" s="81"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6321,38 +6315,38 @@
         <v>67</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="91"/>
-      <c r="J7" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="N7" s="102"/>
-      <c r="O7" s="101" t="s">
-        <v>124</v>
-      </c>
-      <c r="P7" s="101" t="s">
+      <c r="I7" s="76"/>
+      <c r="J7" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="86" t="s">
+        <v>120</v>
+      </c>
+      <c r="N7" s="87"/>
+      <c r="O7" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="Q7" s="103" t="s">
+      <c r="P7" s="86" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q7" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="103" t="s">
+      <c r="R7" s="88" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="92"/>
+      <c r="S7" s="77"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6370,18 +6364,18 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="99"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="100"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="83"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="82"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="82"/>
+      <c r="R8" s="85"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6410,7 +6404,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6439,7 +6433,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6468,7 +6462,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6497,7 +6491,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6528,7 +6522,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6557,7 +6551,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6586,7 +6580,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6615,7 +6609,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8331,13 +8325,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8349,6 +8336,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8392,41 +8386,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8471,58 +8465,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="97" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8547,23 +8541,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8587,27 +8581,27 @@
         <v>66</v>
       </c>
       <c r="H6" s="62" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K6" s="65"/>
       <c r="L6" s="66" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M6" s="66" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>18</v>
@@ -8617,7 +8611,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8647,24 +8641,24 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="K7" s="65" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L7" s="66"/>
       <c r="M7" s="66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N7" s="64"/>
       <c r="O7" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="64" t="s">
         <v>19</v>
@@ -8674,7 +8668,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8703,7 +8697,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8732,7 +8726,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8761,7 +8755,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8790,7 +8784,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8819,7 +8813,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8850,7 +8844,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8879,7 +8873,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8908,7 +8902,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8937,7 +8931,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10653,13 +10647,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10671,6 +10658,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10714,41 +10708,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10793,58 +10787,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="87" t="s">
+      <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="82" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="82" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="97" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10869,23 +10863,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="93"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10899,7 +10893,7 @@
         <v>44848</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E6" s="60">
         <v>862205051190108</v>
@@ -10910,24 +10904,24 @@
       </c>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J6" s="66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K6" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L6" s="66"/>
       <c r="M6" s="66" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>19</v>
@@ -10937,7 +10931,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10956,7 +10950,7 @@
         <v>44848</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E7" s="60">
         <v>862205051193680</v>
@@ -10967,34 +10961,34 @@
       </c>
       <c r="H7" s="62"/>
       <c r="I7" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K7" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L7" s="66"/>
       <c r="M7" s="66" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="64" t="s">
         <v>18</v>
       </c>
       <c r="R7" s="67" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11011,7 +11005,7 @@
         <v>44848</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E8" s="60">
         <v>862205051178665</v>
@@ -11022,24 +11016,24 @@
       </c>
       <c r="H8" s="62"/>
       <c r="I8" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J8" s="64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K8" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L8" s="66"/>
       <c r="M8" s="66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P8" s="66" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q8" s="64" t="s">
         <v>19</v>
@@ -11049,7 +11043,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11066,7 +11060,7 @@
         <v>44867</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E9" s="38">
         <v>861881051088814</v>
@@ -11077,22 +11071,22 @@
       </c>
       <c r="H9" s="47"/>
       <c r="I9" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J9" s="64"/>
       <c r="K9" s="65"/>
       <c r="L9" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M9" s="66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P9" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q9" s="64" t="s">
         <v>19</v>
@@ -11102,7 +11096,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11119,7 +11113,7 @@
         <v>44867</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E10" s="38">
         <v>861881051086057</v>
@@ -11130,24 +11124,24 @@
       </c>
       <c r="H10" s="47"/>
       <c r="I10" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J10" s="64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M10" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P10" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>18</v>
@@ -11157,7 +11151,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11174,7 +11168,7 @@
         <v>44867</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E11" s="38">
         <v>862205051174805</v>
@@ -11185,22 +11179,22 @@
       </c>
       <c r="H11" s="47"/>
       <c r="I11" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J11" s="64"/>
       <c r="K11" s="65"/>
       <c r="L11" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M11" s="66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P11" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="64" t="s">
         <v>19</v>
@@ -11210,7 +11204,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11227,7 +11221,7 @@
         <v>44867</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E12" s="38">
         <v>861881054164596</v>
@@ -11238,22 +11232,22 @@
       </c>
       <c r="H12" s="47"/>
       <c r="I12" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J12" s="64"/>
       <c r="K12" s="65"/>
       <c r="L12" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M12" s="66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P12" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q12" s="64" t="s">
         <v>19</v>
@@ -11263,7 +11257,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11282,7 +11276,7 @@
         <v>44867</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E13" s="38">
         <v>861881051072313</v>
@@ -11293,24 +11287,24 @@
       </c>
       <c r="H13" s="47"/>
       <c r="I13" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J13" s="64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M13" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P13" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>18</v>
@@ -11320,7 +11314,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11337,7 +11331,7 @@
         <v>44867</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E14" s="38">
         <v>861881054172169</v>
@@ -11348,24 +11342,24 @@
       </c>
       <c r="H14" s="47"/>
       <c r="I14" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J14" s="64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M14" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P14" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>18</v>
@@ -11375,7 +11369,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11392,7 +11386,7 @@
         <v>44867</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E15" s="38">
         <v>861881051087352</v>
@@ -11403,24 +11397,24 @@
       </c>
       <c r="H15" s="47"/>
       <c r="I15" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J15" s="64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M15" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P15" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>18</v>
@@ -11430,7 +11424,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11447,7 +11441,7 @@
         <v>44867</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E16" s="38">
         <v>862205051171157</v>
@@ -11458,22 +11452,22 @@
       </c>
       <c r="H16" s="47"/>
       <c r="I16" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M16" s="66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P16" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="64" t="s">
         <v>19</v>
@@ -11483,7 +11477,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -11500,7 +11494,7 @@
         <v>44867</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E17" s="38">
         <v>861881051084086</v>
@@ -11511,24 +11505,24 @@
       </c>
       <c r="H17" s="47"/>
       <c r="I17" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J17" s="64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M17" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P17" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>18</v>
@@ -11553,7 +11547,7 @@
         <v>44867</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E18" s="38">
         <v>862205051198002</v>
@@ -11564,22 +11558,22 @@
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M18" s="66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P18" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="64" t="s">
         <v>19</v>
@@ -11604,7 +11598,7 @@
         <v>44867</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E19" s="38">
         <v>861881054167029</v>
@@ -11615,22 +11609,22 @@
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M19" s="66" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="64" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P19" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="64" t="s">
         <v>19</v>
@@ -11659,39 +11653,39 @@
         <v>44867</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E20" s="38">
         <v>861881051082957</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G20" s="37" t="s">
         <v>64</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="I20" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J20" s="64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M20" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P20" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>18</v>
@@ -11721,7 +11715,7 @@
         <v>44867</v>
       </c>
       <c r="D21" s="37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E21" s="38">
         <v>862205051196857</v>
@@ -11732,24 +11726,24 @@
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="63" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J21" s="64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="65" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M21" s="39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="P21" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>18</v>
@@ -13329,13 +13323,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13347,6 +13334,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13390,41 +13384,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77"/>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="98"/>
+      <c r="T1" s="98"/>
+      <c r="U1" s="98"/>
+      <c r="V1" s="98"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="80"/>
+      <c r="F2" s="101"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13469,58 +13463,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="97" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="97"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="82" t="s">
+      <c r="L4" s="97"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="82" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="90" t="s">
+      <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="96" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="97" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="102"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13545,23 +13539,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="97"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="89"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="103"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="96"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13587,7 +13581,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="84" t="s">
+      <c r="U6" s="89" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13618,7 +13612,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="85"/>
+      <c r="U7" s="90"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13647,7 +13641,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="85"/>
+      <c r="U8" s="90"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13676,7 +13670,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="85"/>
+      <c r="U9" s="90"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13705,7 +13699,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="85"/>
+      <c r="U10" s="90"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13734,7 +13728,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="85"/>
+      <c r="U11" s="90"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13763,7 +13757,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="84" t="s">
+      <c r="U12" s="89" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13794,7 +13788,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="85"/>
+      <c r="U13" s="90"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13823,7 +13817,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="85"/>
+      <c r="U14" s="90"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13852,7 +13846,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="85"/>
+      <c r="U15" s="90"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13881,7 +13875,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="86"/>
+      <c r="U16" s="91"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15112,6 +15106,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15123,13 +15124,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="128">
   <si>
     <t>STT</t>
   </si>
@@ -417,7 +417,16 @@
     <t>WM21051100S0877/ 00BD000C6B</t>
   </si>
   <si>
-    <t>WM21051100S0395/ 00BD000A8C</t>
+    <t>125.212.203.114.250,21083</t>
+  </si>
+  <si>
+    <t>H5_20_V3327_T220515.04</t>
+  </si>
+  <si>
+    <t>Cấu hình lai thiết bị, nhập kho</t>
+  </si>
+  <si>
+    <t>WM21051100S0395/ 00BD000AC8</t>
   </si>
 </sst>
 </file>
@@ -924,30 +933,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -965,6 +950,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,7 +1285,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1308,41 +1317,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1387,58 +1396,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="102" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="97" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="71" t="s">
         <v>1</v>
       </c>
@@ -1463,23 +1472,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="71" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1515,7 +1524,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="70"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1556,7 +1565,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="70"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="98"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="60" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>81</v>
@@ -1583,19 +1592,35 @@
         <v>64</v>
       </c>
       <c r="H8" s="73"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="38"/>
+      <c r="I8" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>125</v>
+      </c>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>126</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="O8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="70"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="98"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1624,7 +1649,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="70"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="98"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1653,7 +1678,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="70"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="98"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1682,7 +1707,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="70"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="98"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1711,7 +1736,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="70"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1742,7 +1767,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="70"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="98"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1771,7 +1796,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="70"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="98"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1800,7 +1825,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="98"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1829,7 +1854,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="99"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1947,7 +1972,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2416,7 +2441,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2480,7 +2505,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3545,6 +3570,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3556,13 +3588,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3606,41 +3631,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3685,58 +3710,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="102" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="97" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -3761,23 +3786,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,7 +3852,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3886,7 +3911,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="98"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3941,7 +3966,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="98"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3996,7 +4021,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="98"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4049,7 +4074,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="98"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4106,7 +4131,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="98"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4163,7 +4188,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4222,7 +4247,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="98"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4251,7 +4276,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="98"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4280,7 +4305,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="98"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4309,7 +4334,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="99"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6025,13 +6050,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6043,6 +6061,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6086,41 +6111,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6165,58 +6190,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="102" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="97" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -6241,23 +6266,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6293,7 +6318,7 @@
       <c r="R6" s="81"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6346,7 +6371,7 @@
       </c>
       <c r="S7" s="77"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="98"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6375,7 +6400,7 @@
       <c r="R8" s="85"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="98"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6404,7 +6429,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="98"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6433,7 +6458,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="98"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6462,7 +6487,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="98"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6491,7 +6516,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6522,7 +6547,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="98"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6551,7 +6576,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="98"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6580,7 +6605,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="98"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6609,7 +6634,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="99"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8325,6 +8350,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8336,13 +8368,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8386,41 +8411,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8465,58 +8490,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="102" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="97" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8541,23 +8566,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8611,7 +8636,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8668,7 +8693,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="98"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8697,7 +8722,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="98"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8726,7 +8751,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="98"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8755,7 +8780,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="98"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8784,7 +8809,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="98"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8813,7 +8838,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8844,7 +8869,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="98"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8873,7 +8898,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="98"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8902,7 +8927,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="98"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8931,7 +8956,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="99"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10647,6 +10672,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10658,13 +10690,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10708,41 +10733,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10787,58 +10812,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="95" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="102" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="97" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10863,23 +10888,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="93"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="96"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="101"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10931,7 +10956,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10988,7 +11013,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="98"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11043,7 +11068,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="98"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11096,7 +11121,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="98"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11151,7 +11176,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="98"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11204,7 +11229,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="98"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11257,7 +11282,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11314,7 +11339,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="98"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11369,7 +11394,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="98"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11424,7 +11449,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="98"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11477,7 +11502,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="99"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13323,6 +13348,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13334,13 +13366,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13384,41 +13409,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
-      <c r="S1" s="98"/>
-      <c r="T1" s="98"/>
-      <c r="U1" s="98"/>
-      <c r="V1" s="98"/>
+      <c r="A1" s="90"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="90"/>
+      <c r="Q1" s="90"/>
+      <c r="R1" s="90"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="90"/>
+      <c r="U1" s="90"/>
+      <c r="V1" s="90"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="101" t="s">
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="93"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13463,58 +13488,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="102" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="97" t="s">
+      <c r="A4" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97" t="s">
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="97"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="97" t="s">
+      <c r="O4" s="89" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="97" t="s">
+      <c r="Q4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="97" t="s">
+      <c r="R4" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="96" t="s">
+      <c r="S4" s="102" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="97" t="s">
+      <c r="U4" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="97" t="s">
+      <c r="V4" s="89" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="102"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13539,23 +13564,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="97"/>
+      <c r="J5" s="89"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="97"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="103"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
-      <c r="S5" s="96"/>
+      <c r="Q5" s="89"/>
+      <c r="R5" s="89"/>
+      <c r="S5" s="102"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="97"/>
-      <c r="V5" s="97"/>
+      <c r="U5" s="89"/>
+      <c r="V5" s="89"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13581,7 +13606,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="89" t="s">
+      <c r="U6" s="97" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13612,7 +13637,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="90"/>
+      <c r="U7" s="98"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13641,7 +13666,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="90"/>
+      <c r="U8" s="98"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13670,7 +13695,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="90"/>
+      <c r="U9" s="98"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13699,7 +13724,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="90"/>
+      <c r="U10" s="98"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13728,7 +13753,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="90"/>
+      <c r="U11" s="98"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13757,7 +13782,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="89" t="s">
+      <c r="U12" s="97" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13788,7 +13813,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="90"/>
+      <c r="U13" s="98"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13817,7 +13842,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="90"/>
+      <c r="U14" s="98"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13846,7 +13871,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="90"/>
+      <c r="U15" s="98"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13875,7 +13900,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="91"/>
+      <c r="U16" s="99"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15106,13 +15131,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15124,6 +15142,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="127">
   <si>
     <t>STT</t>
   </si>
@@ -417,9 +417,6 @@
     <t>WM21051100S0877/ 00BD000C6B</t>
   </si>
   <si>
-    <t>125.212.203.114.250,21083</t>
-  </si>
-  <si>
     <t>H5_20_V3327_T220515.04</t>
   </si>
   <si>
@@ -667,7 +664,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -831,9 +828,6 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,6 +927,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,30 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1284,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1317,41 +1311,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1396,214 +1390,228 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="71" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="71" t="s">
+      <c r="G5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="71" t="s">
+      <c r="H5" s="70" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="71" t="s">
+      <c r="J5" s="96"/>
+      <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="71" t="s">
+      <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="60">
         <v>44845</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="73" t="s">
+      <c r="F6" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="67"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="63"/>
+      <c r="R6" s="66"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="97" t="s">
+      <c r="T6" s="69"/>
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="70"/>
+      <c r="W6" s="69"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="60">
         <v>44845</v>
       </c>
       <c r="C7" s="54"/>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="F7" s="73" t="s">
+      <c r="F7" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="73"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="72"/>
+      <c r="I7" s="51" t="s">
+        <v>102</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="38" t="s">
+        <v>124</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>125</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="98"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="70"/>
+      <c r="W7" s="69"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="60">
         <v>44845</v>
       </c>
       <c r="C8" s="54"/>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" s="73" t="s">
+      <c r="E8" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="73"/>
+      <c r="H8" s="72"/>
       <c r="I8" s="51" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>93</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -1619,24 +1627,24 @@
         <v>24</v>
       </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="98"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="70"/>
+      <c r="W8" s="69"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="62"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="61"/>
       <c r="I9" s="51"/>
       <c r="J9" s="1"/>
       <c r="K9" s="38"/>
@@ -1648,24 +1656,24 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="98"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="70"/>
+      <c r="W9" s="69"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="54"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="62"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="61"/>
       <c r="I10" s="51"/>
       <c r="J10" s="1"/>
       <c r="K10" s="38"/>
@@ -1677,24 +1685,24 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="98"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="70"/>
+      <c r="W10" s="69"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="54"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="56"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="51"/>
       <c r="J11" s="1"/>
       <c r="K11" s="38"/>
@@ -1706,12 +1714,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="98"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="70"/>
+      <c r="W11" s="69"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1723,7 +1731,7 @@
       <c r="E12" s="38"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="56"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="51"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1735,14 +1743,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="97" t="s">
+      <c r="T12" s="69"/>
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="70"/>
+      <c r="W12" s="69"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1766,12 +1774,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="98"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="70"/>
+      <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -1795,12 +1803,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="98"/>
+      <c r="T14" s="69"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="70"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -1825,11 +1833,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="98"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="70"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -1854,11 +1862,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="99"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="70"/>
+      <c r="W16" s="69"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -1882,9 +1890,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="70"/>
+      <c r="U17" s="69"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="70"/>
+      <c r="W17" s="69"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -1936,7 +1944,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="71" t="s">
+      <c r="U19" s="70" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -1972,7 +1980,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2117,7 +2125,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="71" t="s">
+      <c r="U25" s="70" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -2473,7 +2481,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2505,7 +2513,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3570,13 +3578,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3588,6 +3589,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3631,41 +3639,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3710,179 +3718,179 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="58" t="s">
+      <c r="F5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="58" t="s">
+      <c r="H5" s="57" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="96"/>
+      <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="58" t="s">
+      <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="60">
         <v>44845</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <v>44858</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="59" t="s">
+      <c r="F6" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63" t="s">
+      <c r="H6" s="58"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64" t="s">
+      <c r="N6" s="63"/>
+      <c r="O6" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="64" t="s">
+      <c r="Q6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="67" t="s">
+      <c r="R6" s="66" t="s">
         <v>31</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="97" t="s">
+      <c r="T6" s="56"/>
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="57"/>
+      <c r="W6" s="56"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="60">
         <v>44845</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="60">
         <v>44858</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="59" t="s">
+      <c r="F7" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="72" t="s">
+      <c r="H7" s="71" t="s">
         <v>111</v>
       </c>
       <c r="I7" s="51" t="s">
@@ -3910,36 +3918,36 @@
         <v>25</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="98"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="57"/>
+      <c r="W7" s="56"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="60">
         <v>44845</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="60">
         <v>44858</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="72" t="s">
+      <c r="H8" s="71" t="s">
         <v>110</v>
       </c>
       <c r="I8" s="51" t="s">
@@ -3965,36 +3973,36 @@
         <v>25</v>
       </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="98"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="57"/>
+      <c r="W8" s="56"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="60">
         <v>44845</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="60">
         <v>44858</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="E9" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G9" s="59" t="s">
+      <c r="G9" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="59" t="s">
+      <c r="H9" s="58" t="s">
         <v>74</v>
       </c>
       <c r="I9" s="51"/>
@@ -4020,36 +4028,36 @@
         <v>31</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="98"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="57"/>
+      <c r="W9" s="56"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="60">
         <v>44845</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="60">
         <v>44858</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="59" t="s">
+      <c r="F10" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G10" s="59" t="s">
+      <c r="G10" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H10" s="59"/>
+      <c r="H10" s="58"/>
       <c r="I10" s="51"/>
       <c r="J10" s="1" t="s">
         <v>107</v>
@@ -4073,36 +4081,36 @@
         <v>31</v>
       </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="98"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="57"/>
+      <c r="W10" s="56"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="60">
         <v>44845</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="60">
         <v>44858</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="60" t="s">
+      <c r="E11" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="59" t="s">
+      <c r="F11" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="59" t="s">
+      <c r="G11" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="72" t="s">
+      <c r="H11" s="71" t="s">
         <v>77</v>
       </c>
       <c r="I11" s="51" t="s">
@@ -4130,36 +4138,36 @@
         <v>25</v>
       </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="98"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="57"/>
+      <c r="W11" s="56"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="60">
         <v>44845</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="60">
         <v>44858</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="60" t="s">
+      <c r="E12" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="59" t="s">
+      <c r="G12" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="72" t="s">
+      <c r="H12" s="71" t="s">
         <v>105</v>
       </c>
       <c r="I12" s="51" t="s">
@@ -4187,38 +4195,38 @@
         <v>25</v>
       </c>
       <c r="S12" s="3"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="97" t="s">
+      <c r="T12" s="56"/>
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="57"/>
+      <c r="W12" s="56"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="60">
         <v>44845</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="60">
         <v>44858</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="E13" s="60" t="s">
+      <c r="E13" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="75" t="s">
+      <c r="H13" s="74" t="s">
         <v>101</v>
       </c>
       <c r="I13" s="51" t="s">
@@ -4246,12 +4254,12 @@
         <v>25</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="98"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="57"/>
+      <c r="W13" s="56"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -4275,12 +4283,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="98"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="57"/>
+      <c r="W14" s="56"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -4305,11 +4313,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="98"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="57"/>
+      <c r="W15" s="56"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -4334,11 +4342,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="99"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="57"/>
+      <c r="W16" s="56"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -4362,9 +4370,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="57"/>
+      <c r="U17" s="56"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="57"/>
+      <c r="W17" s="56"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -4416,7 +4424,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="58" t="s">
+      <c r="U19" s="57" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -4597,7 +4605,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="58" t="s">
+      <c r="U25" s="57" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -6050,6 +6058,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6061,13 +6076,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6111,41 +6119,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6190,147 +6198,147 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="67" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="68" t="s">
+      <c r="J5" s="96"/>
+      <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="60">
         <v>44845</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <v>44848</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="59"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="78"/>
-      <c r="O6" s="78"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="78"/>
-      <c r="R6" s="81"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="80"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="97" t="s">
+      <c r="T6" s="68"/>
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="69"/>
+      <c r="W6" s="68"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="60">
         <v>44860</v>
       </c>
       <c r="C7" s="54">
@@ -6347,35 +6355,35 @@
         <v>64</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="86" t="s">
+      <c r="I7" s="75"/>
+      <c r="J7" s="85" t="s">
         <v>119</v>
       </c>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="86" t="s">
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="85" t="s">
         <v>120</v>
       </c>
-      <c r="N7" s="87"/>
-      <c r="O7" s="86" t="s">
+      <c r="N7" s="86"/>
+      <c r="O7" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="P7" s="86" t="s">
+      <c r="P7" s="85" t="s">
         <v>118</v>
       </c>
-      <c r="Q7" s="88" t="s">
+      <c r="Q7" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="88" t="s">
+      <c r="R7" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="S7" s="77"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="98"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="69"/>
+      <c r="W7" s="68"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -6389,22 +6397,22 @@
       <c r="G8" s="37"/>
       <c r="H8" s="37"/>
       <c r="I8" s="51"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="83"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="82"/>
-      <c r="O8" s="82"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="82"/>
-      <c r="R8" s="85"/>
+      <c r="J8" s="81"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="83"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="81"/>
+      <c r="O8" s="81"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="81"/>
+      <c r="R8" s="84"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="98"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="69"/>
+      <c r="W8" s="68"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -6428,12 +6436,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="98"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="69"/>
+      <c r="W9" s="68"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -6457,12 +6465,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="98"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="69"/>
+      <c r="W10" s="68"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -6474,7 +6482,7 @@
       <c r="E11" s="38"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="56"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="51"/>
       <c r="J11" s="1"/>
       <c r="K11" s="38"/>
@@ -6486,12 +6494,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="98"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="69"/>
+      <c r="W11" s="68"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -6503,7 +6511,7 @@
       <c r="E12" s="38"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="56"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="51"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -6515,14 +6523,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="97" t="s">
+      <c r="T12" s="68"/>
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="69"/>
+      <c r="W12" s="68"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -6546,12 +6554,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="98"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="69"/>
+      <c r="W13" s="68"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -6575,12 +6583,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="98"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="69"/>
+      <c r="W14" s="68"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -6605,11 +6613,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="98"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="69"/>
+      <c r="W15" s="68"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -6634,11 +6642,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="99"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="69"/>
+      <c r="W16" s="68"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -6662,9 +6670,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="69"/>
+      <c r="U17" s="68"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="69"/>
+      <c r="W17" s="68"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -6716,7 +6724,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="68" t="s">
+      <c r="U19" s="67" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -6897,7 +6905,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="68" t="s">
+      <c r="U25" s="67" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -8350,13 +8358,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8368,6 +8369,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8411,41 +8419,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8490,243 +8498,243 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="67" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="68" t="s">
+      <c r="J5" s="96"/>
+      <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="60">
         <v>44845</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <v>44848</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="59">
         <v>860906041182822</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="66" t="s">
+      <c r="K6" s="64"/>
+      <c r="L6" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="M6" s="66" t="s">
+      <c r="M6" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64" t="s">
+      <c r="N6" s="63"/>
+      <c r="O6" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="64" t="s">
+      <c r="Q6" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="67" t="s">
+      <c r="R6" s="66" t="s">
         <v>31</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="97" t="s">
+      <c r="T6" s="68"/>
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="69"/>
+      <c r="W6" s="68"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="60">
         <v>44845</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="60">
         <v>44848</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="59">
         <v>860906041142677</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="63" t="s">
+      <c r="I7" s="62" t="s">
         <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66" t="s">
+      <c r="L7" s="65"/>
+      <c r="M7" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64" t="s">
+      <c r="N7" s="63"/>
+      <c r="O7" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Q7" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="67" t="s">
+      <c r="R7" s="66" t="s">
         <v>37</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="98"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="69"/>
+      <c r="W7" s="68"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
       <c r="H8" s="37"/>
-      <c r="I8" s="63"/>
+      <c r="I8" s="62"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="39"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="98"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="69"/>
+      <c r="W8" s="68"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -8750,12 +8758,12 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="98"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="69"/>
+      <c r="W9" s="68"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -8779,12 +8787,12 @@
       <c r="Q10" s="1"/>
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="98"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="69"/>
+      <c r="W10" s="68"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -8796,7 +8804,7 @@
       <c r="E11" s="38"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-      <c r="H11" s="56"/>
+      <c r="H11" s="55"/>
       <c r="I11" s="51"/>
       <c r="J11" s="1"/>
       <c r="K11" s="38"/>
@@ -8808,12 +8816,12 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="98"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="69"/>
+      <c r="W11" s="68"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -8825,7 +8833,7 @@
       <c r="E12" s="38"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-      <c r="H12" s="56"/>
+      <c r="H12" s="55"/>
       <c r="I12" s="51"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -8837,14 +8845,14 @@
       <c r="Q12" s="1"/>
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="97" t="s">
+      <c r="T12" s="68"/>
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="69"/>
+      <c r="W12" s="68"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -8868,12 +8876,12 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="98"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="69"/>
+      <c r="W13" s="68"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
@@ -8897,12 +8905,12 @@
       <c r="Q14" s="1"/>
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="98"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="69"/>
+      <c r="W14" s="68"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -8927,11 +8935,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="98"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="69"/>
+      <c r="W15" s="68"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -8956,11 +8964,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="99"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="69"/>
+      <c r="W16" s="68"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -8984,9 +8992,9 @@
       <c r="R17" s="2"/>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="69"/>
+      <c r="U17" s="68"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="69"/>
+      <c r="W17" s="68"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
@@ -9038,7 +9046,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="68" t="s">
+      <c r="U19" s="67" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -9219,7 +9227,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="68" t="s">
+      <c r="U25" s="67" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -10672,13 +10680,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10690,6 +10691,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10733,41 +10741,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10812,276 +10820,276 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="95" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="100" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="95" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="95" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="101"/>
+      <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="68" t="s">
+      <c r="H5" s="67" t="s">
         <v>55</v>
       </c>
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
-      <c r="K5" s="68" t="s">
+      <c r="J5" s="96"/>
+      <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="96"/>
-      <c r="P5" s="101"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
-      <c r="B6" s="61">
+      <c r="B6" s="60">
         <v>44845</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="60">
         <v>44848</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="59">
         <v>862205051190108</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59" t="s">
+      <c r="F6" s="58"/>
+      <c r="G6" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63" t="s">
+      <c r="H6" s="61"/>
+      <c r="I6" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="66" t="s">
+      <c r="J6" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="K6" s="65" t="s">
+      <c r="K6" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
+      <c r="L6" s="65"/>
+      <c r="M6" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64" t="s">
+      <c r="N6" s="63"/>
+      <c r="O6" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Q6" s="64" t="s">
+      <c r="Q6" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="67" t="s">
+      <c r="R6" s="66" t="s">
         <v>25</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="97" t="s">
+      <c r="T6" s="68"/>
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W6" s="69"/>
+      <c r="W6" s="68"/>
     </row>
     <row r="7" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61">
+      <c r="B7" s="60">
         <v>44845</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="60">
         <v>44848</v>
       </c>
       <c r="D7" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="59">
         <v>862205051193680</v>
       </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59" t="s">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="63" t="s">
+      <c r="H7" s="61"/>
+      <c r="I7" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J7" s="64" t="s">
+      <c r="J7" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66" t="s">
+      <c r="L7" s="65"/>
+      <c r="M7" s="65" t="s">
         <v>85</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="64" t="s">
+      <c r="O7" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="P7" s="66" t="s">
+      <c r="P7" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="64" t="s">
+      <c r="Q7" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="67" t="s">
+      <c r="R7" s="66" t="s">
         <v>88</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="98"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W7" s="69"/>
+      <c r="W7" s="68"/>
     </row>
     <row r="8" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61">
+      <c r="B8" s="60">
         <v>44845</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="60">
         <v>44848</v>
       </c>
       <c r="D8" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="E8" s="60">
+      <c r="E8" s="59">
         <v>862205051178665</v>
       </c>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59" t="s">
+      <c r="F8" s="58"/>
+      <c r="G8" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63" t="s">
+      <c r="H8" s="61"/>
+      <c r="I8" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J8" s="64" t="s">
+      <c r="J8" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66" t="s">
+      <c r="L8" s="65"/>
+      <c r="M8" s="65" t="s">
         <v>90</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="64" t="s">
+      <c r="O8" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="P8" s="66" t="s">
+      <c r="P8" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="Q8" s="64" t="s">
+      <c r="Q8" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="67" t="s">
+      <c r="R8" s="66" t="s">
         <v>24</v>
       </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="98"/>
+      <c r="T8" s="68"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="69"/>
+      <c r="W8" s="68"/>
     </row>
     <row r="9" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="61">
+      <c r="B9" s="60">
         <v>44860</v>
       </c>
-      <c r="C9" s="61">
+      <c r="C9" s="60">
         <v>44867</v>
       </c>
       <c r="D9" s="37" t="s">
@@ -11095,46 +11103,46 @@
         <v>64</v>
       </c>
       <c r="H9" s="47"/>
-      <c r="I9" s="63" t="s">
+      <c r="I9" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65" t="s">
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M9" s="66" t="s">
+      <c r="M9" s="65" t="s">
         <v>90</v>
       </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="64" t="s">
+      <c r="O9" s="63" t="s">
         <v>86</v>
       </c>
       <c r="P9" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Q9" s="64" t="s">
+      <c r="Q9" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R9" s="67" t="s">
+      <c r="R9" s="66" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="98"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="W9" s="69"/>
+      <c r="W9" s="68"/>
     </row>
     <row r="10" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="61">
+      <c r="B10" s="60">
         <v>44860</v>
       </c>
-      <c r="C10" s="61">
+      <c r="C10" s="60">
         <v>44867</v>
       </c>
       <c r="D10" s="37" t="s">
@@ -11148,14 +11156,14 @@
         <v>64</v>
       </c>
       <c r="H10" s="47"/>
-      <c r="I10" s="63" t="s">
+      <c r="I10" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J10" s="64" t="s">
+      <c r="J10" s="63" t="s">
         <v>89</v>
       </c>
       <c r="K10" s="1"/>
-      <c r="L10" s="65" t="s">
+      <c r="L10" s="64" t="s">
         <v>82</v>
       </c>
       <c r="M10" s="39" t="s">
@@ -11175,21 +11183,21 @@
         <v>20</v>
       </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="98"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="W10" s="69"/>
+      <c r="W10" s="68"/>
     </row>
     <row r="11" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="61">
+      <c r="B11" s="60">
         <v>44860</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="60">
         <v>44867</v>
       </c>
       <c r="D11" s="37" t="s">
@@ -11203,46 +11211,46 @@
         <v>64</v>
       </c>
       <c r="H11" s="47"/>
-      <c r="I11" s="63" t="s">
+      <c r="I11" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="64"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65" t="s">
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="66" t="s">
+      <c r="M11" s="65" t="s">
         <v>90</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="64" t="s">
+      <c r="O11" s="63" t="s">
         <v>86</v>
       </c>
       <c r="P11" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Q11" s="64" t="s">
+      <c r="Q11" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R11" s="67" t="s">
+      <c r="R11" s="66" t="s">
         <v>24</v>
       </c>
       <c r="S11" s="3"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="98"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W11" s="69"/>
+      <c r="W11" s="68"/>
     </row>
     <row r="12" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="61">
+      <c r="B12" s="60">
         <v>44860</v>
       </c>
-      <c r="C12" s="61">
+      <c r="C12" s="60">
         <v>44867</v>
       </c>
       <c r="D12" s="37" t="s">
@@ -11256,48 +11264,48 @@
         <v>64</v>
       </c>
       <c r="H12" s="47"/>
-      <c r="I12" s="63" t="s">
+      <c r="I12" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J12" s="64"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65" t="s">
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="66" t="s">
+      <c r="M12" s="65" t="s">
         <v>90</v>
       </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="64" t="s">
+      <c r="O12" s="63" t="s">
         <v>86</v>
       </c>
       <c r="P12" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Q12" s="64" t="s">
+      <c r="Q12" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R12" s="67" t="s">
+      <c r="R12" s="66" t="s">
         <v>24</v>
       </c>
       <c r="S12" s="3"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="97" t="s">
+      <c r="T12" s="68"/>
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="W12" s="69"/>
+      <c r="W12" s="68"/>
     </row>
     <row r="13" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
-      <c r="B13" s="61">
+      <c r="B13" s="60">
         <v>44860</v>
       </c>
-      <c r="C13" s="61">
+      <c r="C13" s="60">
         <v>44867</v>
       </c>
       <c r="D13" s="37" t="s">
@@ -11311,14 +11319,14 @@
         <v>64</v>
       </c>
       <c r="H13" s="47"/>
-      <c r="I13" s="63" t="s">
+      <c r="I13" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J13" s="64" t="s">
+      <c r="J13" s="63" t="s">
         <v>89</v>
       </c>
       <c r="K13" s="1"/>
-      <c r="L13" s="65" t="s">
+      <c r="L13" s="64" t="s">
         <v>82</v>
       </c>
       <c r="M13" s="39" t="s">
@@ -11338,21 +11346,21 @@
         <v>20</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="98"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="69"/>
+      <c r="W13" s="68"/>
     </row>
     <row r="14" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
-      <c r="B14" s="61">
+      <c r="B14" s="60">
         <v>44860</v>
       </c>
-      <c r="C14" s="61">
+      <c r="C14" s="60">
         <v>44867</v>
       </c>
       <c r="D14" s="37" t="s">
@@ -11366,14 +11374,14 @@
         <v>64</v>
       </c>
       <c r="H14" s="47"/>
-      <c r="I14" s="63" t="s">
+      <c r="I14" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J14" s="64" t="s">
+      <c r="J14" s="63" t="s">
         <v>89</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="65" t="s">
+      <c r="L14" s="64" t="s">
         <v>82</v>
       </c>
       <c r="M14" s="39" t="s">
@@ -11393,21 +11401,21 @@
         <v>20</v>
       </c>
       <c r="S14" s="3"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="98"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="W14" s="69"/>
+      <c r="W14" s="68"/>
     </row>
     <row r="15" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
-      <c r="B15" s="61">
+      <c r="B15" s="60">
         <v>44860</v>
       </c>
-      <c r="C15" s="61">
+      <c r="C15" s="60">
         <v>44867</v>
       </c>
       <c r="D15" s="37" t="s">
@@ -11421,14 +11429,14 @@
         <v>64</v>
       </c>
       <c r="H15" s="47"/>
-      <c r="I15" s="63" t="s">
+      <c r="I15" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J15" s="64" t="s">
+      <c r="J15" s="63" t="s">
         <v>89</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="65" t="s">
+      <c r="L15" s="64" t="s">
         <v>82</v>
       </c>
       <c r="M15" s="39" t="s">
@@ -11449,20 +11457,20 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="98"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W15" s="69"/>
+      <c r="W15" s="68"/>
     </row>
     <row r="16" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
-      <c r="B16" s="61">
+      <c r="B16" s="60">
         <v>44860</v>
       </c>
-      <c r="C16" s="61">
+      <c r="C16" s="60">
         <v>44867</v>
       </c>
       <c r="D16" s="37" t="s">
@@ -11476,46 +11484,46 @@
         <v>64</v>
       </c>
       <c r="H16" s="47"/>
-      <c r="I16" s="63" t="s">
+      <c r="I16" s="62" t="s">
         <v>83</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="65" t="s">
+      <c r="L16" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M16" s="66" t="s">
+      <c r="M16" s="65" t="s">
         <v>90</v>
       </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="64" t="s">
+      <c r="O16" s="63" t="s">
         <v>86</v>
       </c>
       <c r="P16" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Q16" s="64" t="s">
+      <c r="Q16" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R16" s="67" t="s">
+      <c r="R16" s="66" t="s">
         <v>24</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="99"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="W16" s="69"/>
+      <c r="W16" s="68"/>
     </row>
     <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="60">
         <v>44860</v>
       </c>
-      <c r="C17" s="61">
+      <c r="C17" s="60">
         <v>44867</v>
       </c>
       <c r="D17" s="37" t="s">
@@ -11529,14 +11537,14 @@
         <v>64</v>
       </c>
       <c r="H17" s="47"/>
-      <c r="I17" s="63" t="s">
+      <c r="I17" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="64" t="s">
+      <c r="J17" s="63" t="s">
         <v>89</v>
       </c>
       <c r="K17" s="1"/>
-      <c r="L17" s="65" t="s">
+      <c r="L17" s="64" t="s">
         <v>82</v>
       </c>
       <c r="M17" s="39" t="s">
@@ -11557,18 +11565,18 @@
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="69"/>
+      <c r="U17" s="68"/>
       <c r="V17" s="14"/>
-      <c r="W17" s="69"/>
+      <c r="W17" s="68"/>
     </row>
     <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="60">
         <v>44860</v>
       </c>
-      <c r="C18" s="61">
+      <c r="C18" s="60">
         <v>44867</v>
       </c>
       <c r="D18" s="37" t="s">
@@ -11582,28 +11590,28 @@
         <v>64</v>
       </c>
       <c r="H18" s="47"/>
-      <c r="I18" s="63" t="s">
+      <c r="I18" s="62" t="s">
         <v>83</v>
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="65" t="s">
+      <c r="L18" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M18" s="66" t="s">
+      <c r="M18" s="65" t="s">
         <v>90</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="64" t="s">
+      <c r="O18" s="63" t="s">
         <v>86</v>
       </c>
       <c r="P18" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Q18" s="64" t="s">
+      <c r="Q18" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R18" s="67" t="s">
+      <c r="R18" s="66" t="s">
         <v>24</v>
       </c>
       <c r="S18" s="3"/>
@@ -11616,10 +11624,10 @@
       <c r="A19" s="3">
         <v>14</v>
       </c>
-      <c r="B19" s="61">
+      <c r="B19" s="60">
         <v>44860</v>
       </c>
-      <c r="C19" s="61">
+      <c r="C19" s="60">
         <v>44867</v>
       </c>
       <c r="D19" s="37" t="s">
@@ -11633,33 +11641,33 @@
         <v>64</v>
       </c>
       <c r="H19" s="47"/>
-      <c r="I19" s="63" t="s">
+      <c r="I19" s="62" t="s">
         <v>83</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="65" t="s">
+      <c r="L19" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="M19" s="66" t="s">
+      <c r="M19" s="65" t="s">
         <v>90</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="64" t="s">
+      <c r="O19" s="63" t="s">
         <v>86</v>
       </c>
       <c r="P19" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="Q19" s="64" t="s">
+      <c r="Q19" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="R19" s="67" t="s">
+      <c r="R19" s="66" t="s">
         <v>24</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="68" t="s">
+      <c r="U19" s="67" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="16" t="s">
@@ -11671,10 +11679,10 @@
       <c r="A20" s="3">
         <v>15</v>
       </c>
-      <c r="B20" s="61">
+      <c r="B20" s="60">
         <v>44860</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="60">
         <v>44867</v>
       </c>
       <c r="D20" s="37" t="s">
@@ -11692,14 +11700,14 @@
       <c r="H20" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="I20" s="63" t="s">
+      <c r="I20" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="64" t="s">
+      <c r="J20" s="63" t="s">
         <v>89</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="L20" s="65" t="s">
+      <c r="L20" s="64" t="s">
         <v>82</v>
       </c>
       <c r="M20" s="39" t="s">
@@ -11733,10 +11741,10 @@
       <c r="A21" s="3">
         <v>16</v>
       </c>
-      <c r="B21" s="61">
+      <c r="B21" s="60">
         <v>44860</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="60">
         <v>44867</v>
       </c>
       <c r="D21" s="37" t="s">
@@ -11750,14 +11758,14 @@
         <v>64</v>
       </c>
       <c r="H21" s="47"/>
-      <c r="I21" s="63" t="s">
+      <c r="I21" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="64" t="s">
+      <c r="J21" s="63" t="s">
         <v>89</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="65" t="s">
+      <c r="L21" s="64" t="s">
         <v>82</v>
       </c>
       <c r="M21" s="39" t="s">
@@ -11895,7 +11903,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="3"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="68" t="s">
+      <c r="U25" s="67" t="s">
         <v>46</v>
       </c>
       <c r="V25" s="16" t="s">
@@ -13348,13 +13356,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13366,6 +13367,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13409,41 +13417,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="90"/>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
-      <c r="F1" s="90"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="90"/>
-      <c r="I1" s="90"/>
-      <c r="J1" s="90"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="90"/>
-      <c r="M1" s="90"/>
-      <c r="N1" s="90"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="90"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="90"/>
-      <c r="U1" s="90"/>
-      <c r="V1" s="90"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="93"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13488,58 +13496,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
-      <c r="H4" s="89"/>
-      <c r="I4" s="89"/>
-      <c r="J4" s="89" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="89" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="89"/>
-      <c r="M4" s="95" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="95" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="89" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="103" t="s">
+      <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="89" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="89" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="102" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="89" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="89" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13564,23 +13572,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="89"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="96"/>
-      <c r="N5" s="96"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="103"/>
-      <c r="Q5" s="89"/>
-      <c r="R5" s="89"/>
-      <c r="S5" s="102"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="89"/>
-      <c r="V5" s="89"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13606,7 +13614,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="97" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13637,7 +13645,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="98"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13666,7 +13674,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="98"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13695,7 +13703,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="98"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13724,7 +13732,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="98"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13753,7 +13761,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="98"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13782,7 +13790,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="97" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13813,7 +13821,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="98"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13842,7 +13850,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="98"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13871,7 +13879,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="98"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13900,7 +13908,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="99"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15131,6 +15139,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15142,13 +15157,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>WM21051100S0395/ 00BD000AC8</t>
+  </si>
+  <si>
+    <t>Nhập kho</t>
+  </si>
+  <si>
+    <t>Thiết bị treo, không khởi động lên được</t>
   </si>
 </sst>
 </file>
@@ -927,30 +933,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -968,6 +950,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1278,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1311,41 +1317,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1390,58 +1396,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -1466,23 +1472,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1507,18 +1513,28 @@
       </c>
       <c r="H6" s="73"/>
       <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
+      <c r="J6" s="62" t="s">
+        <v>128</v>
+      </c>
       <c r="K6" s="64"/>
       <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
+      <c r="M6" s="65" t="s">
+        <v>127</v>
+      </c>
       <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="63"/>
+      <c r="O6" s="63" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q6" s="63" t="s">
+        <v>19</v>
+      </c>
       <c r="R6" s="66"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1550,7 +1566,9 @@
       <c r="I7" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="J7" s="1"/>
+      <c r="J7" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="K7" s="38" t="s">
         <v>124</v>
       </c>
@@ -1573,7 +1591,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1628,7 +1646,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1657,7 +1675,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1686,7 +1704,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1715,7 +1733,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1744,7 +1762,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1775,7 +1793,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1804,7 +1822,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1833,7 +1851,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1862,7 +1880,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1980,7 +1998,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2631,7 +2649,7 @@
       </c>
       <c r="V41" s="9">
         <f>COUNTIF($O$6:$O$51,"*KS*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W41" s="13"/>
     </row>
@@ -3578,6 +3596,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3589,13 +3614,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3639,41 +3657,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3718,58 +3736,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -3794,23 +3812,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3860,7 +3878,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3919,7 +3937,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3974,7 +3992,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4029,7 +4047,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4082,7 +4100,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4139,7 +4157,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4196,7 +4214,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4255,7 +4273,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4284,7 +4302,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4313,7 +4331,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4342,7 +4360,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6058,13 +6076,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6076,6 +6087,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6119,41 +6137,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6198,58 +6216,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6274,23 +6292,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6326,7 +6344,7 @@
       <c r="R6" s="80"/>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6379,7 +6397,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6408,7 +6426,7 @@
       <c r="R8" s="84"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6437,7 +6455,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6466,7 +6484,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6495,7 +6513,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6524,7 +6542,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6555,7 +6573,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6584,7 +6602,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6613,7 +6631,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6642,7 +6660,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8358,6 +8376,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8369,13 +8394,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8419,41 +8437,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8498,58 +8516,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -8574,23 +8592,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8644,7 +8662,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8701,7 +8719,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8730,7 +8748,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8759,7 +8777,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8788,7 +8806,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8817,7 +8835,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8846,7 +8864,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8877,7 +8895,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8906,7 +8924,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8935,7 +8953,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8964,7 +8982,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10680,6 +10698,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10691,13 +10716,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10741,41 +10759,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10820,58 +10838,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -10896,23 +10914,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10964,7 +10982,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11021,7 +11039,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11076,7 +11094,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11129,7 +11147,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11184,7 +11202,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11237,7 +11255,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11290,7 +11308,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11347,7 +11365,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11402,7 +11420,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11457,7 +11475,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11510,7 +11528,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13356,6 +13374,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13367,13 +13392,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13417,41 +13435,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13496,58 +13514,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13572,23 +13590,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="96"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="102"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="95"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13614,7 +13632,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13645,7 +13663,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13674,7 +13692,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13703,7 +13721,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13732,7 +13750,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13761,7 +13779,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13790,7 +13808,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13821,7 +13839,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13850,7 +13868,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13879,7 +13897,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13908,7 +13926,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15139,13 +15157,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15157,6 +15168,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -933,6 +933,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,30 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1317,41 +1317,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1396,58 +1396,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -1472,23 +1472,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1498,7 +1498,9 @@
       <c r="B6" s="60">
         <v>44845</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="60">
+        <v>44896</v>
+      </c>
       <c r="D6" s="58" t="s">
         <v>80</v>
       </c>
@@ -1534,7 +1536,7 @@
       <c r="R6" s="66"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1549,7 +1551,9 @@
       <c r="B7" s="60">
         <v>44845</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="60">
+        <v>44896</v>
+      </c>
       <c r="D7" s="58" t="s">
         <v>80</v>
       </c>
@@ -1591,7 +1595,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1604,7 +1608,9 @@
       <c r="B8" s="60">
         <v>44845</v>
       </c>
-      <c r="C8" s="54"/>
+      <c r="C8" s="60">
+        <v>44896</v>
+      </c>
       <c r="D8" s="58" t="s">
         <v>80</v>
       </c>
@@ -1646,7 +1652,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1675,7 +1681,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1704,7 +1710,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1733,7 +1739,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1762,7 +1768,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1793,7 +1799,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1822,7 +1828,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1851,7 +1857,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1880,7 +1886,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3596,13 +3602,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3614,6 +3613,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3657,41 +3663,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3736,58 +3742,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -3812,23 +3818,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3878,7 +3884,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3937,7 +3943,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3992,7 +3998,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4047,7 +4053,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4100,7 +4106,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4157,7 +4163,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4214,7 +4220,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4273,7 +4279,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4302,7 +4308,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4331,7 +4337,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4360,7 +4366,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6076,6 +6082,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6087,13 +6100,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6137,41 +6143,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6216,58 +6222,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6292,23 +6298,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6344,7 +6350,7 @@
       <c r="R6" s="80"/>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6397,7 +6403,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6426,7 +6432,7 @@
       <c r="R8" s="84"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6455,7 +6461,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6484,7 +6490,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6513,7 +6519,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6542,7 +6548,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6573,7 +6579,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6602,7 +6608,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6631,7 +6637,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6660,7 +6666,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8376,13 +8382,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8394,6 +8393,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8437,41 +8443,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8516,58 +8522,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -8592,23 +8598,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8662,7 +8668,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8719,7 +8725,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8748,7 +8754,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8777,7 +8783,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8806,7 +8812,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8835,7 +8841,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8864,7 +8870,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8895,7 +8901,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8924,7 +8930,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8953,7 +8959,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8982,7 +8988,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10698,13 +10704,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10716,6 +10715,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10759,41 +10765,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10838,58 +10844,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -10914,23 +10920,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10982,7 +10988,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11039,7 +11045,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11094,7 +11100,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11147,7 +11153,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11202,7 +11208,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11255,7 +11261,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11308,7 +11314,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11365,7 +11371,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11420,7 +11426,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11475,7 +11481,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11528,7 +11534,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13374,13 +13380,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13392,6 +13391,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13435,41 +13441,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13514,58 +13520,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13590,23 +13596,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="88"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="96"/>
       <c r="P5" s="102"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="101"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13632,7 +13638,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13663,7 +13669,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13692,7 +13698,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13721,7 +13727,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13750,7 +13756,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13779,7 +13785,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13808,7 +13814,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13839,7 +13845,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13868,7 +13874,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13897,7 +13903,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13926,7 +13932,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15157,6 +15163,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15168,13 +15181,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
@@ -933,30 +933,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -974,6 +950,30 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1317,41 +1317,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1396,58 +1396,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -1472,23 +1472,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1536,7 +1536,7 @@
       <c r="R6" s="66"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1630,9 +1630,6 @@
       <c r="J8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="38" t="s">
-        <v>124</v>
-      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
         <v>125</v>
@@ -1652,7 +1649,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1681,7 +1678,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1710,7 +1707,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1739,7 +1736,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1768,7 +1765,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1799,7 +1796,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1828,7 +1825,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1857,7 +1854,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +1883,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3602,6 +3599,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3613,13 +3617,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3663,41 +3660,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3742,58 +3739,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -3818,23 +3815,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,7 +3881,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3943,7 +3940,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3998,7 +3995,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4053,7 +4050,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4106,7 +4103,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4163,7 +4160,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4220,7 +4217,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4279,7 +4276,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4308,7 +4305,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4337,7 +4334,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4366,7 +4363,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6082,13 +6079,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6100,6 +6090,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6143,41 +6140,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6222,58 +6219,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6298,23 +6295,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6350,7 +6347,7 @@
       <c r="R6" s="80"/>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6403,7 +6400,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6432,7 +6429,7 @@
       <c r="R8" s="84"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6461,7 +6458,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6490,7 +6487,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6519,7 +6516,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6548,7 +6545,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6579,7 +6576,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6608,7 +6605,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6637,7 +6634,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6666,7 +6663,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8382,6 +8379,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8393,13 +8397,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8443,41 +8440,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8522,58 +8519,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -8598,23 +8595,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8668,7 +8665,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8725,7 +8722,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8754,7 +8751,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8783,7 +8780,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8812,7 +8809,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8841,7 +8838,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8870,7 +8867,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8901,7 +8898,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8930,7 +8927,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8959,7 +8956,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8988,7 +8985,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10704,6 +10701,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10715,13 +10719,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10765,41 +10762,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10844,58 +10841,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="91" t="s">
+      <c r="P4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="93" t="s">
+      <c r="Q4" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="93" t="s">
+      <c r="R4" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -10920,23 +10917,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="94"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="94"/>
-      <c r="R5" s="94"/>
-      <c r="S5" s="95"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="95"/>
+      <c r="P5" s="100"/>
+      <c r="Q5" s="95"/>
+      <c r="R5" s="95"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10988,7 +10985,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11045,7 +11042,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11100,7 +11097,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11153,7 +11150,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11208,7 +11205,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11261,7 +11258,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11314,7 +11311,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11371,7 +11368,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11426,7 +11423,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11481,7 +11478,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11534,7 +11531,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13380,6 +13377,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13391,13 +13395,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13441,41 +13438,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="97"/>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
-      <c r="U1" s="97"/>
-      <c r="V1" s="97"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="100" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="92"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13520,58 +13517,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="96" t="s">
+      <c r="A4" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="88" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96" t="s">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="93" t="s">
+      <c r="L4" s="88"/>
+      <c r="M4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="96" t="s">
+      <c r="O4" s="88" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="96" t="s">
+      <c r="Q4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="96" t="s">
+      <c r="R4" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="95" t="s">
+      <c r="S4" s="101" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="96" t="s">
+      <c r="U4" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="88" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13596,23 +13593,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="96"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="94"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="96"/>
+      <c r="M5" s="95"/>
+      <c r="N5" s="95"/>
+      <c r="O5" s="88"/>
       <c r="P5" s="102"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-      <c r="S5" s="95"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="101"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="96"/>
-      <c r="V5" s="96"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13638,7 +13635,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="88" t="s">
+      <c r="U6" s="96" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13669,7 +13666,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="89"/>
+      <c r="U7" s="97"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13698,7 +13695,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="89"/>
+      <c r="U8" s="97"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13727,7 +13724,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="89"/>
+      <c r="U9" s="97"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13756,7 +13753,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="89"/>
+      <c r="U10" s="97"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13785,7 +13782,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="89"/>
+      <c r="U11" s="97"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13814,7 +13811,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="88" t="s">
+      <c r="U12" s="96" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13845,7 +13842,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="89"/>
+      <c r="U13" s="97"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13874,7 +13871,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="89"/>
+      <c r="U14" s="97"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13903,7 +13900,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="89"/>
+      <c r="U15" s="97"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13932,7 +13929,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="90"/>
+      <c r="U16" s="98"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15163,13 +15160,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15181,6 +15171,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_AnhTuanNB.xlsx
@@ -33,12 +33,12 @@
     <definedName name="_xlnm.Criteria" localSheetId="0">VNSH01!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="1">VNSH02!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
@@ -411,25 +411,25 @@
     <t>ĐM</t>
   </si>
   <si>
-    <t>WM21051100S0481/ 00BD0007AF</t>
-  </si>
-  <si>
-    <t>WM21051100S0877/ 00BD000C6B</t>
-  </si>
-  <si>
     <t>H5_20_V3327_T220515.04</t>
   </si>
   <si>
     <t>Cấu hình lai thiết bị, nhập kho</t>
   </si>
   <si>
-    <t>WM21051100S0395/ 00BD000AC8</t>
-  </si>
-  <si>
     <t>Nhập kho</t>
   </si>
   <si>
     <t>Thiết bị treo, không khởi động lên được</t>
+  </si>
+  <si>
+    <t>WM21051100S0481 / 00BD0007AF</t>
+  </si>
+  <si>
+    <t>WM21051100S0877 / 00BD000C6B</t>
+  </si>
+  <si>
+    <t>WM21051100S0395 / 00BD000AC8</t>
   </si>
 </sst>
 </file>
@@ -933,6 +933,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,30 +974,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1284,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1317,41 +1317,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1396,58 +1396,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="70" t="s">
         <v>1</v>
       </c>
@@ -1472,23 +1472,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="70" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1505,7 +1505,7 @@
         <v>80</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F6" s="72" t="s">
         <v>81</v>
@@ -1516,12 +1516,12 @@
       <c r="H6" s="73"/>
       <c r="I6" s="62"/>
       <c r="J6" s="62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K6" s="64"/>
       <c r="L6" s="65"/>
       <c r="M6" s="65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N6" s="63"/>
       <c r="O6" s="63" t="s">
@@ -1536,7 +1536,7 @@
       <c r="R6" s="66"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1558,7 +1558,7 @@
         <v>80</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F7" s="72" t="s">
         <v>81</v>
@@ -1574,11 +1574,11 @@
         <v>93</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F8" s="72" t="s">
         <v>81</v>
@@ -1630,9 +1630,12 @@
       <c r="J8" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="K8" s="38" t="s">
+        <v>122</v>
+      </c>
       <c r="L8" s="39"/>
       <c r="M8" s="39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1" t="s">
@@ -1649,7 +1652,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1678,7 +1681,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1707,7 +1710,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1736,7 +1739,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1765,7 +1768,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1796,7 +1799,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1825,7 +1828,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1854,7 +1857,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1883,7 +1886,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3599,13 +3602,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3617,6 +3613,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3660,41 +3663,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3739,58 +3742,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -3815,23 +3818,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3881,7 +3884,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3940,7 +3943,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3995,7 +3998,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -4050,7 +4053,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -4103,7 +4106,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -4160,7 +4163,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4217,7 +4220,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4276,7 +4279,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4305,7 +4308,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4334,7 +4337,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4363,7 +4366,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6079,6 +6082,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6090,13 +6100,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6140,41 +6143,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -6219,58 +6222,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -6295,23 +6298,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6347,7 +6350,7 @@
       <c r="R6" s="80"/>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6400,7 +6403,7 @@
       </c>
       <c r="S7" s="76"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6429,7 +6432,7 @@
       <c r="R8" s="84"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6458,7 +6461,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6487,7 +6490,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6516,7 +6519,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6545,7 +6548,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6576,7 +6579,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6605,7 +6608,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6634,7 +6637,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6663,7 +6666,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8379,13 +8382,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8397,6 +8393,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8440,41 +8443,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8519,58 +8522,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -8595,23 +8598,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8665,7 +8668,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8722,7 +8725,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8751,7 +8754,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8780,7 +8783,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8809,7 +8812,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8838,7 +8841,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8867,7 +8870,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8898,7 +8901,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8927,7 +8930,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8956,7 +8959,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8985,7 +8988,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10701,13 +10704,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10719,6 +10715,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10762,41 +10765,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10841,58 +10844,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="94" t="s">
+      <c r="O4" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="99" t="s">
+      <c r="P4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="94" t="s">
+      <c r="Q4" s="93" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="94" t="s">
+      <c r="R4" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="67" t="s">
         <v>1</v>
       </c>
@@ -10917,23 +10920,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="67" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="67" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="95"/>
-      <c r="P5" s="100"/>
-      <c r="Q5" s="95"/>
-      <c r="R5" s="95"/>
-      <c r="S5" s="101"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="92"/>
+      <c r="Q5" s="94"/>
+      <c r="R5" s="94"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10985,7 +10988,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="68"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -11042,7 +11045,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="68"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -11097,7 +11100,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="68"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -11150,7 +11153,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="68"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -11205,7 +11208,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="68"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -11258,7 +11261,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="68"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -11311,7 +11314,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="68"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -11368,7 +11371,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="68"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -11423,7 +11426,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="68"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -11478,7 +11481,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -11531,7 +11534,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13377,13 +13380,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -13395,6 +13391,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13438,41 +13441,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
-      <c r="P1" s="89"/>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="89"/>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
+      <c r="A1" s="97"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="92" t="s">
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="92"/>
+      <c r="F2" s="100"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -13517,58 +13520,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="93" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="88" t="s">
+      <c r="A4" s="101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88" t="s">
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="88"/>
-      <c r="M4" s="94" t="s">
+      <c r="L4" s="96"/>
+      <c r="M4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="94" t="s">
+      <c r="N4" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="88" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="88" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="88" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="101" t="s">
+      <c r="S4" s="95" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="96" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="93"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -13593,23 +13596,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="88"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="95"/>
-      <c r="N5" s="95"/>
-      <c r="O5" s="88"/>
+      <c r="M5" s="94"/>
+      <c r="N5" s="94"/>
+      <c r="O5" s="96"/>
       <c r="P5" s="102"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="101"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
+      <c r="S5" s="95"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
+      <c r="U5" s="96"/>
+      <c r="V5" s="96"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -13635,7 +13638,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="96" t="s">
+      <c r="U6" s="88" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -13666,7 +13669,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="97"/>
+      <c r="U7" s="89"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -13695,7 +13698,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="97"/>
+      <c r="U8" s="89"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -13724,7 +13727,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="97"/>
+      <c r="U9" s="89"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -13753,7 +13756,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="97"/>
+      <c r="U10" s="89"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -13782,7 +13785,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="97"/>
+      <c r="U11" s="89"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -13811,7 +13814,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="96" t="s">
+      <c r="U12" s="88" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13842,7 +13845,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="97"/>
+      <c r="U13" s="89"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13871,7 +13874,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="97"/>
+      <c r="U14" s="89"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13900,7 +13903,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="97"/>
+      <c r="U15" s="89"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13929,7 +13932,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="98"/>
+      <c r="U16" s="90"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -15160,6 +15163,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -15171,13 +15181,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
